--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -1,43 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="22" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="9" activeTab="23"/>
   </bookViews>
   <sheets>
-    <sheet name="MaxMinTests" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Mod" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Slice" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sort" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Contains" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="IndexOf" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="noNulls" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="error and format" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Quotient" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Sum" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Avg" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="logical functions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Differents" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Product" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Logical" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Round" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="MaxMinTests2" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Add" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="AddAll" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Remove" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Empty" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="Sheet22" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="small and big" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="MaxMinTests" sheetId="1" r:id="rId1"/>
+    <sheet name="Mod" sheetId="2" r:id="rId2"/>
+    <sheet name="Slice" sheetId="3" r:id="rId3"/>
+    <sheet name="Sort" sheetId="4" r:id="rId4"/>
+    <sheet name="Contains" sheetId="5" r:id="rId5"/>
+    <sheet name="IndexOf" sheetId="6" r:id="rId6"/>
+    <sheet name="noNulls" sheetId="7" r:id="rId7"/>
+    <sheet name="error and format" sheetId="8" r:id="rId8"/>
+    <sheet name="Quotient" sheetId="9" r:id="rId9"/>
+    <sheet name="Sum" sheetId="10" r:id="rId10"/>
+    <sheet name="Avg" sheetId="11" r:id="rId11"/>
+    <sheet name="logical functions" sheetId="12" r:id="rId12"/>
+    <sheet name="Differents" sheetId="13" r:id="rId13"/>
+    <sheet name="Product" sheetId="14" r:id="rId14"/>
+    <sheet name="Logical" sheetId="15" r:id="rId15"/>
+    <sheet name="Round" sheetId="16" r:id="rId16"/>
+    <sheet name="MaxMinTests2" sheetId="17" r:id="rId17"/>
+    <sheet name="Add" sheetId="18" r:id="rId18"/>
+    <sheet name="AddAll" sheetId="19" r:id="rId19"/>
+    <sheet name="Remove" sheetId="20" r:id="rId20"/>
+    <sheet name="Empty" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="small and big" sheetId="23" r:id="rId23"/>
+    <sheet name="arrays" sheetId="24" r:id="rId24"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="497">
   <si>
     <t>Tests to test rules helper methods for Max and Min value of different types</t>
   </si>
@@ -1522,60 +1522,47 @@
   </si>
   <si>
     <t>Method Double testDoubleBig(Double[] inArray, int pos)</t>
+  </si>
+  <si>
+    <t>return flatten(data);</t>
+  </si>
+  <si>
+    <t>Method Object[] testFlatten(Object[] data)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="@" numFmtId="165"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1641,127 +1628,82 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="6" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="7" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="8" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="9" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="9" fontId="6" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="10" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="10" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1820,45 +1762,340 @@
       <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B4" activeCellId="0" pane="topLeft" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.4897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.8724489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.4897959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="72.8163265306123"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.58673469387755"/>
+    <col min="1" max="2" width="9.5703125"/>
+    <col min="3" max="3" width="19.5703125"/>
+    <col min="4" max="4" width="38.42578125"/>
+    <col min="5" max="5" width="9.5703125"/>
+    <col min="6" max="6" width="28.85546875"/>
+    <col min="7" max="7" width="38.42578125"/>
+    <col min="8" max="8" width="9.5703125"/>
+    <col min="9" max="9" width="72.85546875"/>
+    <col min="10" max="10" width="27.28515625"/>
+    <col min="11" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1867,28 +2104,28 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="1"/>
       <c r="I6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1913,7 +2150,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1928,8 +2165,8 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="C10" s="8" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
         <v>-128</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1945,8 +2182,8 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="C11" s="8" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
         <v>127</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1959,7 +2196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1970,33 +2207,33 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="C14" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="1"/>
       <c r="I15" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
@@ -2011,7 +2248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2021,7 +2258,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
@@ -2036,8 +2273,8 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="C19" s="8" t="n">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="8">
         <v>32767</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2053,8 +2290,8 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="C20" s="8" t="n">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="8">
         <v>-32768</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2067,7 +2304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F21" s="9" t="s">
         <v>26</v>
       </c>
@@ -2078,33 +2315,33 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I22" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="C23" s="3" t="s">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="1"/>
       <c r="I24" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2119,7 +2356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
         <v>31</v>
       </c>
@@ -2129,7 +2366,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
         <v>10</v>
       </c>
@@ -2144,8 +2381,8 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="C28" s="8" t="n">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="8">
         <v>2147483647</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -2161,47 +2398,47 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="C29" s="8" t="n">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="8">
         <v>-2147483648</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="8">
         <v>123</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
-      <c r="F30" s="8" t="n">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="8">
         <v>0</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="C32" s="3" t="s">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
         <v>7</v>
       </c>
@@ -2213,7 +2450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
@@ -2223,7 +2460,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
         <v>10</v>
       </c>
@@ -2235,8 +2472,8 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="C37" s="8" t="n">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="8">
         <v>2147483647</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -2249,47 +2486,47 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
-      <c r="C38" s="8" t="n">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="8">
         <v>-2147483648</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="8" t="n">
+      <c r="F38" s="8">
         <v>123</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
-      <c r="F39" s="8" t="n">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="8">
         <v>0</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
-      <c r="C41" s="3" t="s">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2301,7 +2538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
         <v>40</v>
       </c>
@@ -2311,7 +2548,7 @@
       </c>
       <c r="G44" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" s="7" t="s">
         <v>10</v>
       </c>
@@ -2323,8 +2560,8 @@
       </c>
       <c r="G45" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
-      <c r="C46" s="8" t="n">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="8">
         <v>-128</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -2337,8 +2574,8 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
-      <c r="C47" s="8" t="n">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="8">
         <v>127</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -2351,7 +2588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F48" s="9" t="s">
         <v>17</v>
       </c>
@@ -2359,25 +2596,25 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="50">
-      <c r="C50" s="3" t="s">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="51">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="52">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2389,7 +2626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
         <v>44</v>
       </c>
@@ -2399,7 +2636,7 @@
       </c>
       <c r="G53" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C54" s="7" t="s">
         <v>10</v>
       </c>
@@ -2411,8 +2648,8 @@
       </c>
       <c r="G54" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="55">
-      <c r="C55" s="8" t="n">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="8">
         <v>32767</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -2425,8 +2662,8 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="56">
-      <c r="C56" s="8" t="n">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="8">
         <v>-32768</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -2439,7 +2676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F57" s="9" t="s">
         <v>26</v>
       </c>
@@ -2447,7 +2684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="60">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C60" s="2" t="s">
         <v>46</v>
       </c>
@@ -2456,28 +2693,28 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="62">
-      <c r="C62" s="3" t="s">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="63">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="3"/>
+      <c r="G63" s="1"/>
       <c r="I63" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="64">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C64" s="4" t="s">
         <v>50</v>
       </c>
@@ -2492,7 +2729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="65">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C65" s="4" t="s">
         <v>9</v>
       </c>
@@ -2502,7 +2739,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="66">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" s="7" t="s">
         <v>10</v>
       </c>
@@ -2517,8 +2754,8 @@
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67">
-      <c r="C67" s="8" t="n">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="8">
         <v>-128</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -2534,8 +2771,8 @@
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="68">
-      <c r="C68" s="8" t="n">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="8">
         <v>127</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -2548,7 +2785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="69">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F69" s="9" t="s">
         <v>17</v>
       </c>
@@ -2559,33 +2796,33 @@
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="70">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I70" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71">
-      <c r="C71" s="3" t="s">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="72">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="3"/>
+      <c r="G72" s="1"/>
       <c r="I72" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="73">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C73" s="4" t="s">
         <v>50</v>
       </c>
@@ -2600,7 +2837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="74">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C74" s="4" t="s">
         <v>22</v>
       </c>
@@ -2610,7 +2847,7 @@
       </c>
       <c r="G74" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="75">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C75" s="7" t="s">
         <v>10</v>
       </c>
@@ -2625,8 +2862,8 @@
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="76">
-      <c r="C76" s="8" t="n">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="8">
         <v>32767</v>
       </c>
       <c r="D76" s="8" t="s">
@@ -2642,8 +2879,8 @@
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="77">
-      <c r="C77" s="8" t="n">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="8">
         <v>-32768</v>
       </c>
       <c r="D77" s="8" t="s">
@@ -2656,7 +2893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="78">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F78" s="9" t="s">
         <v>26</v>
       </c>
@@ -2667,33 +2904,33 @@
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="79">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I79" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="80">
-      <c r="C80" s="3" t="s">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="81">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="3"/>
+      <c r="G81" s="1"/>
       <c r="I81" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="82">
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C82" s="4" t="s">
         <v>50</v>
       </c>
@@ -2708,7 +2945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="83">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C83" s="4" t="s">
         <v>31</v>
       </c>
@@ -2718,7 +2955,7 @@
       </c>
       <c r="G83" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="84">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C84" s="7" t="s">
         <v>10</v>
       </c>
@@ -2733,8 +2970,8 @@
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="85">
-      <c r="C85" s="8" t="n">
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="8">
         <v>2147483647</v>
       </c>
       <c r="D85" s="8" t="s">
@@ -2750,47 +2987,47 @@
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="86">
-      <c r="C86" s="8" t="n">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="8">
         <v>-2147483648</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="8" t="n">
+      <c r="F86" s="8">
         <v>123</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="87">
-      <c r="F87" s="8" t="n">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F87" s="8">
         <v>0</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="89">
-      <c r="C89" s="3" t="s">
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="90">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="91">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="4" t="s">
         <v>50</v>
       </c>
@@ -2802,7 +3039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92">
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C92" s="4" t="s">
         <v>36</v>
       </c>
@@ -2812,7 +3049,7 @@
       </c>
       <c r="G92" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="93">
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C93" s="7" t="s">
         <v>10</v>
       </c>
@@ -2824,8 +3061,8 @@
       </c>
       <c r="G93" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="94">
-      <c r="C94" s="8" t="n">
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="8">
         <v>2147483647</v>
       </c>
       <c r="D94" s="8" t="s">
@@ -2838,47 +3075,47 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95">
-      <c r="C95" s="8" t="n">
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="8">
         <v>-2147483648</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="8" t="n">
+      <c r="F95" s="8">
         <v>123</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96">
-      <c r="F96" s="8" t="n">
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F96" s="8">
         <v>0</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98">
-      <c r="C98" s="3" t="s">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G99" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
         <v>50</v>
       </c>
@@ -2890,7 +3127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C101" s="4" t="s">
         <v>40</v>
       </c>
@@ -2900,7 +3137,7 @@
       </c>
       <c r="G101" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="102">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C102" s="7" t="s">
         <v>10</v>
       </c>
@@ -2912,8 +3149,8 @@
       </c>
       <c r="G102" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="103">
-      <c r="C103" s="8" t="n">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="8">
         <v>-128</v>
       </c>
       <c r="D103" s="8" t="s">
@@ -2926,8 +3163,8 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104">
-      <c r="C104" s="8" t="n">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="8">
         <v>127</v>
       </c>
       <c r="D104" s="8" t="s">
@@ -2940,7 +3177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="105">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F105" s="9" t="s">
         <v>17</v>
       </c>
@@ -2948,25 +3185,25 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107">
-      <c r="C107" s="3" t="s">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="108">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="4" t="s">
         <v>50</v>
       </c>
@@ -2978,7 +3215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="110">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C110" s="4" t="s">
         <v>44</v>
       </c>
@@ -2988,7 +3225,7 @@
       </c>
       <c r="G110" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="111">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C111" s="7" t="s">
         <v>10</v>
       </c>
@@ -3000,8 +3237,8 @@
       </c>
       <c r="G111" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112">
-      <c r="C112" s="8" t="n">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="8">
         <v>32767</v>
       </c>
       <c r="D112" s="8" t="s">
@@ -3014,8 +3251,8 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="113">
-      <c r="C113" s="8" t="n">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="8">
         <v>-32768</v>
       </c>
       <c r="D113" s="8" t="s">
@@ -3028,7 +3265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="114">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F114" s="9" t="s">
         <v>26</v>
       </c>
@@ -3038,73 +3275,65 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="F108:G108"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C28" activeCellId="0" pane="topLeft" sqref="C28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="78.7551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="78.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.58673469387755"/>
+    <col min="1" max="2" width="9.5703125"/>
+    <col min="3" max="3" width="78.7109375"/>
+    <col min="4" max="4" width="9.5703125"/>
+    <col min="5" max="5" width="78.7109375"/>
+    <col min="6" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>216</v>
       </c>
@@ -3112,7 +3341,7 @@
         <v>217</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
         <v>218</v>
       </c>
@@ -3120,7 +3349,7 @@
         <v>218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>219</v>
       </c>
@@ -3128,7 +3357,7 @@
         <v>220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
         <v>218</v>
       </c>
@@ -3136,7 +3365,7 @@
         <v>218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>221</v>
       </c>
@@ -3144,7 +3373,7 @@
         <v>222</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
         <v>218</v>
       </c>
@@ -3152,7 +3381,7 @@
         <v>218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>223</v>
       </c>
@@ -3160,7 +3389,7 @@
         <v>224</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
         <v>218</v>
       </c>
@@ -3168,7 +3397,7 @@
         <v>218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>225</v>
       </c>
@@ -3176,7 +3405,7 @@
         <v>226</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
         <v>218</v>
       </c>
@@ -3184,22 +3413,22 @@
         <v>218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
         <v>218</v>
       </c>
@@ -3208,45 +3437,37 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F21" activeCellId="0" pane="topLeft" sqref="F21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.4030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.58673469387755"/>
+    <col min="1" max="3" width="9.5703125"/>
+    <col min="4" max="4" width="62.42578125"/>
+    <col min="5" max="5" width="9.5703125"/>
+    <col min="6" max="6" width="62.42578125"/>
+    <col min="7" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
         <v>230</v>
       </c>
@@ -3254,7 +3475,7 @@
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="6" t="s">
         <v>232</v>
       </c>
@@ -3262,7 +3483,7 @@
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
         <v>233</v>
       </c>
@@ -3270,7 +3491,7 @@
         <v>234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="6" t="s">
         <v>232</v>
       </c>
@@ -3278,7 +3499,7 @@
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
         <v>235</v>
       </c>
@@ -3286,7 +3507,7 @@
         <v>236</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="6" t="s">
         <v>232</v>
       </c>
@@ -3294,7 +3515,7 @@
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
         <v>237</v>
       </c>
@@ -3302,7 +3523,7 @@
         <v>238</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="6" t="s">
         <v>232</v>
       </c>
@@ -3310,7 +3531,7 @@
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
         <v>239</v>
       </c>
@@ -3318,7 +3539,7 @@
         <v>240</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
         <v>232</v>
       </c>
@@ -3326,7 +3547,7 @@
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="5" t="s">
         <v>241</v>
       </c>
@@ -3334,7 +3555,7 @@
         <v>242</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="6" t="s">
         <v>232</v>
       </c>
@@ -3342,22 +3563,22 @@
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="6" t="s">
         <v>232</v>
       </c>
@@ -3366,561 +3587,537 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:C8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C8" activeCellId="0" pane="topLeft" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.58673469387755"/>
+    <col min="1" max="2" width="9.5703125"/>
+    <col min="3" max="3" width="38.85546875"/>
+    <col min="4" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B117"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A91" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B118" activeCellId="0" pane="topLeft" sqref="B118"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.58673469387755"/>
+    <col min="1" max="1" width="9.5703125"/>
+    <col min="2" max="2" width="82.42578125"/>
+    <col min="3" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>251</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>256</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>260</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>261</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>263</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="28">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="31">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>268</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="34">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>269</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="37">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="40">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>273</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="42">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="43">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="44">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="45">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
         <v>276</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="46">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="47">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="48">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="49">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="50">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="51">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="13" t="s">
         <v>280</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="52">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="53">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>281</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="54">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="55">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="56">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="57">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="58">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="59">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>285</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="60">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="61">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="62">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="63">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="64">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="65">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>289</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="66">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="67">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="68">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="69">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="71">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>293</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="72">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="74">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>295</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="75">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="77">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>297</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="78">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="80">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>298</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="81">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="83">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>299</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="84">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="86">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="87">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="13" t="s">
         <v>301</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="89">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>302</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="90">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="92">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>304</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="93">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="95">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="96">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="98">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="99">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
         <v>309</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="101">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>310</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="102">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="104">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="105">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="107">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
         <v>314</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="108">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="110">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="111">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="113">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
         <v>317</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="114">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="116">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="117">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="13" t="s">
         <v>320</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.0102040816326"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.2704081632653"/>
+    <col min="1" max="1" width="10.28515625"/>
+    <col min="2" max="2" width="45.85546875"/>
+    <col min="3" max="3" width="10.28515625"/>
+    <col min="4" max="4" width="39"/>
+    <col min="5" max="1025" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>321</v>
       </c>
@@ -3929,7 +4126,7 @@
         <v>322</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>323</v>
       </c>
@@ -3938,12 +4135,12 @@
         <v>323</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>324</v>
       </c>
@@ -3952,7 +4149,7 @@
         <v>325</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>323</v>
       </c>
@@ -3961,12 +4158,12 @@
         <v>323</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>326</v>
       </c>
@@ -3975,7 +4172,7 @@
         <v>327</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>323</v>
       </c>
@@ -3984,12 +4181,12 @@
         <v>323</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>328</v>
       </c>
@@ -3998,7 +4195,7 @@
         <v>329</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>323</v>
       </c>
@@ -4007,12 +4204,12 @@
         <v>323</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>330</v>
       </c>
@@ -4021,7 +4218,7 @@
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>323</v>
       </c>
@@ -4030,12 +4227,12 @@
         <v>323</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>332</v>
       </c>
@@ -4044,7 +4241,7 @@
         <v>333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>323</v>
       </c>
@@ -4053,45 +4250,43 @@
         <v>323</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="15"/>
       <c r="D20" s="12" t="s">
         <v>334</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" s="15"/>
       <c r="D21" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" s="15"/>
       <c r="D22" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
       <c r="D23" s="12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
       <c r="D24" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4099,88 +4294,84 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B18" activeCellId="0" pane="topLeft" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="49.28515625"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>336</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>338</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>339</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>342</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>344</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>343</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4188,118 +4379,114 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B27" activeCellId="0" pane="topLeft" sqref="B27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="51.28515625"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>348</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>353</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>354</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>355</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>356</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="28">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>352</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4307,26 +4494,23 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D31"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B30" activeCellId="0" pane="topLeft" sqref="B30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.4540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="50.28515625"/>
+    <col min="3" max="3" width="11.5703125"/>
+    <col min="4" max="4" width="56.42578125"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>357</v>
       </c>
@@ -4334,7 +4518,7 @@
         <v>358</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>359</v>
       </c>
@@ -4342,8 +4526,7 @@
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>361</v>
       </c>
@@ -4351,7 +4534,7 @@
         <v>362</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>359</v>
       </c>
@@ -4359,8 +4542,7 @@
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>363</v>
       </c>
@@ -4368,7 +4550,7 @@
         <v>364</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>359</v>
       </c>
@@ -4376,8 +4558,7 @@
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>365</v>
       </c>
@@ -4385,7 +4566,7 @@
         <v>366</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>359</v>
       </c>
@@ -4393,8 +4574,7 @@
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>367</v>
       </c>
@@ -4402,7 +4582,7 @@
         <v>368</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>359</v>
       </c>
@@ -4410,8 +4590,7 @@
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>369</v>
       </c>
@@ -4419,7 +4598,7 @@
         <v>370</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>359</v>
       </c>
@@ -4427,8 +4606,7 @@
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>371</v>
       </c>
@@ -4436,7 +4614,7 @@
         <v>372</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>359</v>
       </c>
@@ -4444,8 +4622,7 @@
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>373</v>
       </c>
@@ -4453,7 +4630,7 @@
         <v>374</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>359</v>
       </c>
@@ -4461,8 +4638,7 @@
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>375</v>
       </c>
@@ -4470,7 +4646,7 @@
         <v>376</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="28">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>359</v>
       </c>
@@ -4478,8 +4654,7 @@
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>377</v>
       </c>
@@ -4487,7 +4662,7 @@
         <v>378</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="31">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>359</v>
       </c>
@@ -4496,10 +4671,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4507,27 +4681,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.015306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="70.140625"/>
+    <col min="3" max="3" width="11.5703125"/>
+    <col min="4" max="4" width="68"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>379</v>
       </c>
@@ -4535,7 +4705,7 @@
         <v>380</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>381</v>
       </c>
@@ -4543,7 +4713,7 @@
         <v>381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>382</v>
       </c>
@@ -4551,7 +4721,7 @@
         <v>383</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>384</v>
       </c>
@@ -4559,8 +4729,7 @@
         <v>384</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>385</v>
       </c>
@@ -4568,7 +4737,7 @@
         <v>386</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>381</v>
       </c>
@@ -4576,7 +4745,7 @@
         <v>387</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>388</v>
       </c>
@@ -4584,7 +4753,7 @@
         <v>389</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>384</v>
       </c>
@@ -4592,131 +4761,130 @@
         <v>390</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>392</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>384</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>393</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>394</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>384</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>384</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>398</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>384</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>399</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="42">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>384</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="44">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>401</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="45">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
         <v>381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="47">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>402</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="48">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
         <v>384</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4724,119 +4892,114 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B27" activeCellId="0" pane="topLeft" sqref="B27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="56.42578125"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>403</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>405</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>406</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>407</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>409</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>410</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>411</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>412</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>404</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4844,38 +5007,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.8163265306123"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.8163265306123"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.5663265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.58673469387755"/>
+    <col min="1" max="1" width="10.42578125"/>
+    <col min="2" max="2" width="9.5703125"/>
+    <col min="3" max="3" width="72.85546875"/>
+    <col min="4" max="4" width="9.5703125"/>
+    <col min="5" max="5" width="72.85546875"/>
+    <col min="6" max="6" width="9.5703125"/>
+    <col min="7" max="7" width="19.5703125"/>
+    <col min="8" max="8" width="38.42578125"/>
+    <col min="9" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
@@ -4883,7 +5043,7 @@
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>72</v>
       </c>
@@ -4891,7 +5051,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>73</v>
       </c>
@@ -4899,7 +5059,7 @@
         <v>74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
         <v>72</v>
       </c>
@@ -4907,7 +5067,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>75</v>
       </c>
@@ -4915,7 +5075,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
         <v>72</v>
       </c>
@@ -4923,7 +5083,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>77</v>
       </c>
@@ -4931,7 +5091,7 @@
         <v>78</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
         <v>72</v>
       </c>
@@ -4939,7 +5099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>79</v>
       </c>
@@ -4947,7 +5107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
         <v>72</v>
       </c>
@@ -4955,7 +5115,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>81</v>
       </c>
@@ -4963,7 +5123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="6" t="s">
         <v>72</v>
       </c>
@@ -4971,7 +5131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>83</v>
       </c>
@@ -4979,7 +5139,7 @@
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
         <v>72</v>
       </c>
@@ -4987,7 +5147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
         <v>85</v>
       </c>
@@ -4995,7 +5155,7 @@
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
         <v>72</v>
       </c>
@@ -5003,62 +5163,62 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="6" t="s">
         <v>72</v>
       </c>
@@ -5067,37 +5227,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="53.42578125"/>
+    <col min="3" max="3" width="11.5703125"/>
+    <col min="4" max="4" width="57.5703125"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>413</v>
       </c>
@@ -5105,7 +5257,7 @@
         <v>414</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>415</v>
       </c>
@@ -5113,7 +5265,7 @@
         <v>416</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>417</v>
       </c>
@@ -5121,7 +5273,7 @@
         <v>418</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>415</v>
       </c>
@@ -5129,7 +5281,7 @@
         <v>416</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>419</v>
       </c>
@@ -5137,7 +5289,7 @@
         <v>420</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>415</v>
       </c>
@@ -5145,7 +5297,7 @@
         <v>416</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>421</v>
       </c>
@@ -5153,7 +5305,7 @@
         <v>422</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>415</v>
       </c>
@@ -5161,7 +5313,7 @@
         <v>416</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>423</v>
       </c>
@@ -5169,7 +5321,7 @@
         <v>424</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>415</v>
       </c>
@@ -5177,7 +5329,7 @@
         <v>416</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>425</v>
       </c>
@@ -5185,7 +5337,7 @@
         <v>426</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>415</v>
       </c>
@@ -5193,7 +5345,7 @@
         <v>416</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>427</v>
       </c>
@@ -5201,7 +5353,7 @@
         <v>428</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>415</v>
       </c>
@@ -5209,7 +5361,7 @@
         <v>416</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>429</v>
       </c>
@@ -5217,7 +5369,7 @@
         <v>430</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>415</v>
       </c>
@@ -5225,7 +5377,7 @@
         <v>416</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>431</v>
       </c>
@@ -5233,7 +5385,7 @@
         <v>432</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>415</v>
       </c>
@@ -5242,10 +5394,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5253,138 +5404,134 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B33"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="62.28515625"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>433</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>435</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>436</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>437</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>438</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>439</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>440</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>441</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>442</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>443</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>444</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>434</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5392,139 +5539,124 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B30"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.9081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="78.85546875"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>445</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>446</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>448</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>449</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>450</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>451</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>452</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>453</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>454</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>455</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>456</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>457</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>458</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>459</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>460</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>461</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>462</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>463</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>464</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5532,26 +5664,23 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D20" activeCellId="0" pane="topLeft" sqref="D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="50"/>
+    <col min="3" max="3" width="11.5703125"/>
+    <col min="4" max="4" width="65.42578125"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>465</v>
       </c>
@@ -5559,7 +5688,7 @@
         <v>466</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>467</v>
       </c>
@@ -5567,7 +5696,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>469</v>
       </c>
@@ -5575,7 +5704,7 @@
         <v>470</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>467</v>
       </c>
@@ -5583,7 +5712,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>471</v>
       </c>
@@ -5591,7 +5720,7 @@
         <v>472</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>467</v>
       </c>
@@ -5599,7 +5728,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>473</v>
       </c>
@@ -5607,7 +5736,7 @@
         <v>474</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>467</v>
       </c>
@@ -5615,7 +5744,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>475</v>
       </c>
@@ -5623,7 +5752,7 @@
         <v>476</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>467</v>
       </c>
@@ -5631,7 +5760,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>477</v>
       </c>
@@ -5639,7 +5768,7 @@
         <v>478</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>467</v>
       </c>
@@ -5647,7 +5776,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>479</v>
       </c>
@@ -5655,7 +5784,7 @@
         <v>480</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>467</v>
       </c>
@@ -5663,7 +5792,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>481</v>
       </c>
@@ -5671,7 +5800,7 @@
         <v>482</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>467</v>
       </c>
@@ -5679,7 +5808,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>483</v>
       </c>
@@ -5687,7 +5816,7 @@
         <v>484</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>467</v>
       </c>
@@ -5695,7 +5824,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>485</v>
       </c>
@@ -5703,7 +5832,7 @@
         <v>486</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>467</v>
       </c>
@@ -5711,7 +5840,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>487</v>
       </c>
@@ -5719,7 +5848,7 @@
         <v>488</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>467</v>
       </c>
@@ -5727,7 +5856,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>489</v>
       </c>
@@ -5735,7 +5864,7 @@
         <v>490</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>467</v>
       </c>
@@ -5743,7 +5872,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>491</v>
       </c>
@@ -5751,7 +5880,7 @@
         <v>492</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>467</v>
       </c>
@@ -5759,7 +5888,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>493</v>
       </c>
@@ -5767,7 +5896,7 @@
         <v>494</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="42">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>467</v>
       </c>
@@ -5776,46 +5905,70 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.8163265306123"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.8163265306123"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.58673469387755"/>
+    <col min="1" max="1" width="10.42578125"/>
+    <col min="2" max="2" width="9.5703125"/>
+    <col min="3" max="3" width="72.85546875"/>
+    <col min="4" max="4" width="9.5703125"/>
+    <col min="5" max="5" width="72.85546875"/>
+    <col min="6" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>94</v>
       </c>
@@ -5823,7 +5976,7 @@
         <v>95</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>96</v>
       </c>
@@ -5831,7 +5984,7 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>97</v>
       </c>
@@ -5839,7 +5992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
         <v>99</v>
       </c>
@@ -5847,7 +6000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>100</v>
       </c>
@@ -5855,7 +6008,7 @@
         <v>101</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
         <v>96</v>
       </c>
@@ -5863,7 +6016,7 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>102</v>
       </c>
@@ -5871,7 +6024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
         <v>99</v>
       </c>
@@ -5879,7 +6032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>104</v>
       </c>
@@ -5887,7 +6040,7 @@
         <v>105</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
         <v>96</v>
       </c>
@@ -5895,7 +6048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>106</v>
       </c>
@@ -5903,7 +6056,7 @@
         <v>107</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="6" t="s">
         <v>99</v>
       </c>
@@ -5911,7 +6064,7 @@
         <v>99</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>108</v>
       </c>
@@ -5919,7 +6072,7 @@
         <v>109</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
         <v>96</v>
       </c>
@@ -5927,7 +6080,7 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
         <v>110</v>
       </c>
@@ -5935,7 +6088,7 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
         <v>99</v>
       </c>
@@ -5943,7 +6096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
         <v>112</v>
       </c>
@@ -5951,7 +6104,7 @@
         <v>113</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="6" t="s">
         <v>96</v>
       </c>
@@ -5959,7 +6112,7 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
         <v>114</v>
       </c>
@@ -5967,7 +6120,7 @@
         <v>115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
         <v>99</v>
       </c>
@@ -5975,7 +6128,7 @@
         <v>99</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
         <v>116</v>
       </c>
@@ -5983,7 +6136,7 @@
         <v>117</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
         <v>96</v>
       </c>
@@ -5991,7 +6144,7 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
         <v>118</v>
       </c>
@@ -5999,7 +6152,7 @@
         <v>119</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>99</v>
       </c>
@@ -6007,42 +6160,42 @@
         <v>99</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="49">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="50">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="6" t="s">
         <v>99</v>
       </c>
@@ -6051,46 +6204,38 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.8163265306123"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.8163265306123"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.58673469387755"/>
+    <col min="1" max="1" width="10.42578125"/>
+    <col min="2" max="2" width="9.5703125"/>
+    <col min="3" max="3" width="72.85546875"/>
+    <col min="4" max="4" width="9.5703125"/>
+    <col min="5" max="5" width="72.85546875"/>
+    <col min="6" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>125</v>
       </c>
@@ -6098,7 +6243,7 @@
         <v>126</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>127</v>
       </c>
@@ -6106,7 +6251,7 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>128</v>
       </c>
@@ -6114,7 +6259,7 @@
         <v>129</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
         <v>127</v>
       </c>
@@ -6122,7 +6267,7 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>130</v>
       </c>
@@ -6130,7 +6275,7 @@
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
         <v>127</v>
       </c>
@@ -6138,7 +6283,7 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>132</v>
       </c>
@@ -6146,7 +6291,7 @@
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
         <v>127</v>
       </c>
@@ -6154,7 +6299,7 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>134</v>
       </c>
@@ -6162,7 +6307,7 @@
         <v>135</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
         <v>127</v>
       </c>
@@ -6170,7 +6315,7 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>136</v>
       </c>
@@ -6178,7 +6323,7 @@
         <v>137</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="6" t="s">
         <v>127</v>
       </c>
@@ -6186,27 +6331,27 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
         <v>140</v>
       </c>
@@ -6214,7 +6359,7 @@
         <v>141</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
         <v>127</v>
       </c>
@@ -6222,7 +6367,7 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
         <v>142</v>
       </c>
@@ -6230,7 +6375,7 @@
         <v>143</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
         <v>127</v>
       </c>
@@ -6238,7 +6383,7 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
         <v>144</v>
       </c>
@@ -6246,7 +6391,7 @@
         <v>145</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
         <v>127</v>
       </c>
@@ -6254,7 +6399,7 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
         <v>146</v>
       </c>
@@ -6262,7 +6407,7 @@
         <v>147</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="6" t="s">
         <v>127</v>
       </c>
@@ -6270,42 +6415,42 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="49">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="51">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="52">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="6" t="s">
         <v>127</v>
       </c>
@@ -6314,46 +6459,38 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="D12" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E28" activeCellId="0" pane="topLeft" sqref="E28"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.58673469387755"/>
+    <col min="1" max="1" width="10.42578125"/>
+    <col min="2" max="2" width="9.5703125"/>
+    <col min="3" max="3" width="82.42578125"/>
+    <col min="4" max="4" width="9.5703125"/>
+    <col min="5" max="5" width="93.28515625"/>
+    <col min="6" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>152</v>
       </c>
@@ -6361,7 +6498,7 @@
         <v>153</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>154</v>
       </c>
@@ -6369,7 +6506,7 @@
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>155</v>
       </c>
@@ -6377,7 +6514,7 @@
         <v>156</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
         <v>154</v>
       </c>
@@ -6385,7 +6522,7 @@
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>157</v>
       </c>
@@ -6393,7 +6530,7 @@
         <v>158</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
         <v>154</v>
       </c>
@@ -6401,7 +6538,7 @@
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>159</v>
       </c>
@@ -6409,7 +6546,7 @@
         <v>160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
         <v>154</v>
       </c>
@@ -6417,7 +6554,7 @@
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>161</v>
       </c>
@@ -6425,7 +6562,7 @@
         <v>162</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
         <v>154</v>
       </c>
@@ -6433,7 +6570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>163</v>
       </c>
@@ -6441,7 +6578,7 @@
         <v>164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
         <v>154</v>
       </c>
@@ -6449,7 +6586,7 @@
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
         <v>165</v>
       </c>
@@ -6457,7 +6594,7 @@
         <v>166</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
         <v>154</v>
       </c>
@@ -6465,7 +6602,7 @@
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
         <v>167</v>
       </c>
@@ -6473,7 +6610,7 @@
         <v>168</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
         <v>154</v>
       </c>
@@ -6481,7 +6618,7 @@
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
         <v>169</v>
       </c>
@@ -6489,7 +6626,7 @@
         <v>170</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>154</v>
       </c>
@@ -6501,129 +6638,121 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.58673469387755"/>
+    <col min="1" max="1" width="10.42578125"/>
+    <col min="2" max="2" width="9.5703125"/>
+    <col min="3" max="3" width="82.42578125"/>
+    <col min="4" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="11" t="s">
         <v>172</v>
       </c>
@@ -6632,76 +6761,60 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.58673469387755"/>
+    <col min="1" max="1" width="9.5703125"/>
+    <col min="2" max="2" width="82.42578125"/>
+    <col min="3" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="82.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.58673469387755"/>
+    <col min="1" max="1" width="9.5703125"/>
+    <col min="2" max="2" width="82.42578125"/>
+    <col min="3" max="3" width="9.5703125"/>
+    <col min="4" max="4" width="82.42578125"/>
+    <col min="5" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>183</v>
       </c>
@@ -6709,7 +6822,7 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>185</v>
       </c>
@@ -6717,7 +6830,7 @@
         <v>186</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>187</v>
       </c>
@@ -6725,7 +6838,7 @@
         <v>188</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>189</v>
       </c>
@@ -6734,45 +6847,37 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B36" activeCellId="0" pane="topLeft" sqref="B36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.8163265306123"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.8163265306123"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.58673469387755"/>
+    <col min="1" max="1" width="9.5703125"/>
+    <col min="2" max="2" width="72.85546875"/>
+    <col min="3" max="3" width="9.5703125"/>
+    <col min="4" max="4" width="72.85546875"/>
+    <col min="5" max="1025" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>192</v>
       </c>
@@ -6780,7 +6885,7 @@
         <v>193</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>194</v>
       </c>
@@ -6788,7 +6893,7 @@
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>195</v>
       </c>
@@ -6796,7 +6901,7 @@
         <v>196</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>194</v>
       </c>
@@ -6804,7 +6909,7 @@
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>197</v>
       </c>
@@ -6812,7 +6917,7 @@
         <v>198</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>194</v>
       </c>
@@ -6820,7 +6925,7 @@
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>199</v>
       </c>
@@ -6828,7 +6933,7 @@
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>194</v>
       </c>
@@ -6836,7 +6941,7 @@
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>201</v>
       </c>
@@ -6844,7 +6949,7 @@
         <v>202</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>194</v>
       </c>
@@ -6852,7 +6957,7 @@
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>203</v>
       </c>
@@ -6860,7 +6965,7 @@
         <v>204</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>194</v>
       </c>
@@ -6868,7 +6973,7 @@
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>205</v>
       </c>
@@ -6876,7 +6981,7 @@
         <v>206</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>194</v>
       </c>
@@ -6884,7 +6989,7 @@
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>207</v>
       </c>
@@ -6892,7 +6997,7 @@
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>194</v>
       </c>
@@ -6900,7 +7005,7 @@
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>209</v>
       </c>
@@ -6908,7 +7013,7 @@
         <v>210</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>194</v>
       </c>
@@ -6916,7 +7021,7 @@
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>211</v>
       </c>
@@ -6924,7 +7029,7 @@
         <v>212</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>194</v>
       </c>
@@ -6932,7 +7037,7 @@
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>213</v>
       </c>
@@ -6940,7 +7045,7 @@
         <v>214</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>194</v>
       </c>
@@ -6952,12 +7057,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="9" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="14" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="MaxMinTests" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
     <sheet name="small and big" sheetId="23" r:id="rId23"/>
     <sheet name="arrays" sheetId="24" r:id="rId24"/>
+    <sheet name="alliases" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="515">
   <si>
     <t>Tests to test rules helper methods for Max and Min value of different types</t>
   </si>
@@ -1528,19 +1529,97 @@
   </si>
   <si>
     <t>Method Object[] testFlatten(Object[] data)</t>
+  </si>
+  <si>
+    <t>Data String agency</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>return getValues(agency);</t>
+  </si>
+  <si>
+    <t>Method Object[] testGetValuesAlias()</t>
+  </si>
+  <si>
+    <t>Method Object[] testGetValuesData()</t>
+  </si>
+  <si>
+    <t>Datatype Agency &lt;String&gt;</t>
+  </si>
+  <si>
+    <t>return getValues(Agency);</t>
+  </si>
+  <si>
+    <t>Data4</t>
+  </si>
+  <si>
+    <t>Data0</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>Alias1</t>
+  </si>
+  <si>
+    <t>Alias2</t>
+  </si>
+  <si>
+    <t>Alias0</t>
+  </si>
+  <si>
+    <t>Alias4</t>
+  </si>
+  <si>
+    <t>Method Object[] testGetValuesWrongType()</t>
+  </si>
+  <si>
+    <t>return getValues("ABC");</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1565,7 +1644,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1626,6 +1705,18 @@
         <bgColor rgb="FFB7DEE8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1666,40 +1757,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2088,1193 +2187,1213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="I6" s="5" t="s">
+      <c r="G6" s="15"/>
+      <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="I9" s="5" t="s">
+      <c r="G9" s="1"/>
+      <c r="I9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>-128</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>127</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="I15" s="5" t="s">
+      <c r="G15" s="15"/>
+      <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="D16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="D17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="I18" s="5" t="s">
+      <c r="G18" s="1"/>
+      <c r="I18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>32767</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>-32768</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="I24" s="5" t="s">
+      <c r="G24" s="15"/>
+      <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="D25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="F26" s="4" t="s">
+      <c r="D26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="I27" s="5" t="s">
+      <c r="G27" s="1"/>
+      <c r="I27" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="8">
+      <c r="C28" s="5">
         <v>2147483647</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <v>-2147483648</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="5">
         <v>123</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="8">
+      <c r="F30" s="5">
         <v>0</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="F34" s="4" t="s">
+      <c r="D34" s="1"/>
+      <c r="F34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="F35" s="4" t="s">
+      <c r="D35" s="1"/>
+      <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="8">
+      <c r="C37" s="5">
         <v>2147483647</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="8">
+      <c r="C38" s="5">
         <v>-2147483648</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="5">
         <v>123</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="8">
+      <c r="F39" s="5">
         <v>0</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="F43" s="4" t="s">
+      <c r="D43" s="1"/>
+      <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="F44" s="4" t="s">
+      <c r="D44" s="1"/>
+      <c r="F44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="8">
+      <c r="C46" s="5">
         <v>-128</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="8">
+      <c r="C47" s="5">
         <v>127</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="F52" s="4" t="s">
+      <c r="D52" s="1"/>
+      <c r="F52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="F53" s="4" t="s">
+      <c r="D53" s="1"/>
+      <c r="F53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="4"/>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="8">
+      <c r="C55" s="5">
         <v>32767</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="8">
+      <c r="C56" s="5">
         <v>-32768</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="15"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="I63" s="5" t="s">
+      <c r="G63" s="15"/>
+      <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="F64" s="4" t="s">
+      <c r="D64" s="1"/>
+      <c r="F64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="I64" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="F65" s="4" t="s">
+      <c r="D65" s="1"/>
+      <c r="F65" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G65" s="4"/>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="4"/>
-      <c r="I66" s="5" t="s">
+      <c r="G66" s="1"/>
+      <c r="I66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="8">
+      <c r="C67" s="5">
         <v>-128</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="8">
+      <c r="C68" s="5">
         <v>127</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I70" s="6" t="s">
+      <c r="I70" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="1"/>
+      <c r="D71" s="15"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="I72" s="5" t="s">
+      <c r="G72" s="15"/>
+      <c r="I72" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="F73" s="4" t="s">
+      <c r="D73" s="1"/>
+      <c r="F73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I73" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="4"/>
-      <c r="F74" s="4" t="s">
+      <c r="D74" s="1"/>
+      <c r="F74" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G74" s="4"/>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G75" s="4"/>
-      <c r="I75" s="5" t="s">
+      <c r="G75" s="1"/>
+      <c r="I75" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="8">
+      <c r="C76" s="5">
         <v>32767</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I76" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="8">
+      <c r="C77" s="5">
         <v>-32768</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I79" s="6" t="s">
+      <c r="I79" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="1"/>
+      <c r="D80" s="15"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="1"/>
-      <c r="I81" s="5" t="s">
+      <c r="G81" s="15"/>
+      <c r="I81" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="4"/>
-      <c r="F82" s="4" t="s">
+      <c r="D82" s="1"/>
+      <c r="F82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="6" t="s">
+      <c r="I82" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="F83" s="4" t="s">
+      <c r="D83" s="1"/>
+      <c r="F83" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G83" s="4"/>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G84" s="4"/>
-      <c r="I84" s="5" t="s">
+      <c r="G84" s="1"/>
+      <c r="I84" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="8">
+      <c r="C85" s="5">
         <v>2147483647</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="I85" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="8">
+      <c r="C86" s="5">
         <v>-2147483648</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="5">
         <v>123</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F87" s="8">
+      <c r="F87" s="5">
         <v>0</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="1"/>
+      <c r="D89" s="15"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="1"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="4"/>
-      <c r="F91" s="4" t="s">
+      <c r="D91" s="1"/>
+      <c r="F91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D92" s="4"/>
-      <c r="F92" s="4" t="s">
+      <c r="D92" s="1"/>
+      <c r="F92" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G92" s="4"/>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G93" s="4"/>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="8">
+      <c r="C94" s="5">
         <v>2147483647</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="G94" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="8">
+      <c r="C95" s="5">
         <v>-2147483648</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F95" s="5">
         <v>123</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F96" s="8">
+      <c r="F96" s="5">
         <v>0</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="1"/>
+      <c r="D98" s="15"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G99" s="1"/>
+      <c r="G99" s="15"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="F100" s="4" t="s">
+      <c r="D100" s="1"/>
+      <c r="F100" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D101" s="4"/>
-      <c r="F101" s="4" t="s">
+      <c r="D101" s="1"/>
+      <c r="F101" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G101" s="4"/>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G102" s="4"/>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="8">
+      <c r="C103" s="5">
         <v>-128</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="G103" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="8">
+      <c r="C104" s="5">
         <v>127</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="1"/>
+      <c r="D107" s="15"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="1"/>
+      <c r="G108" s="15"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D109" s="4"/>
-      <c r="F109" s="4" t="s">
+      <c r="D109" s="1"/>
+      <c r="F109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G109" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D110" s="4"/>
-      <c r="F110" s="4" t="s">
+      <c r="D110" s="1"/>
+      <c r="F110" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G110" s="4"/>
+      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G111" s="4"/>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="8">
+      <c r="C112" s="5">
         <v>32767</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="G112" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="8">
+      <c r="C113" s="5">
         <v>-32768</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G113" s="8" t="s">
+      <c r="G113" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F114" s="9" t="s">
+      <c r="F114" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G114" s="5" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C80:D80"/>
     <mergeCell ref="C107:D107"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="F81:G81"/>
@@ -3282,26 +3401,6 @@
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F99:G99"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3326,110 +3425,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3460,126 +3559,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3639,458 +3738,458 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="14"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="9" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="9" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="14"/>
+      <c r="B49" s="11"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="14"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="9" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="14"/>
+      <c r="B55" s="11"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="9" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="14"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="10" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="14"/>
+      <c r="B61" s="11"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="9" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="14"/>
+      <c r="B64" s="11"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="10" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="14"/>
+      <c r="B67" s="11"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="9" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="10" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="9" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="10" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="10" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="9" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="10" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="9" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="10" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="9" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="10" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="9" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="9" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="10" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="9" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="9" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="9" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="9" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="10" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="9" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="10" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4118,168 +4217,168 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="9" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="9" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="9" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="9" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="9" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="15"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="9" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="15"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="15"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="15"/>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="9" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="15"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="10" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4309,62 +4408,62 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4394,92 +4493,92 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4511,162 +4610,162 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="9" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="10" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="9" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="10" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4698,186 +4797,186 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="9" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="9" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="10" t="s">
         <v>384</v>
       </c>
     </row>
@@ -4907,92 +5006,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5028,198 +5127,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5250,146 +5349,146 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="9" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="10" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5419,112 +5518,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5554,102 +5653,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5681,226 +5780,226 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="9" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="9" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="9" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="9" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="9" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="9" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="10" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5918,7 +6017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5928,13 +6027,122 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>495</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5961,242 +6169,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6228,230 +6436,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6483,154 +6691,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6660,100 +6868,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="8" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6782,12 +6990,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6815,34 +7023,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6870,186 +7078,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="3" t="s">
         <v>194</v>
       </c>
     </row>

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="518">
   <si>
     <t>Tests to test rules helper methods for Max and Min value of different types</t>
   </si>
@@ -1583,6 +1583,15 @@
   </si>
   <si>
     <t>return getValues("ABC");</t>
+  </si>
+  <si>
+    <t>Datatype Primes &lt;Integer&gt;</t>
+  </si>
+  <si>
+    <t>Method Object[] testGetValuesPrimesAlias()</t>
+  </si>
+  <si>
+    <t>return getValues(Primes);</t>
   </si>
 </sst>
 </file>
@@ -1784,17 +1793,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
@@ -2195,19 +2204,19 @@
       <c r="D1" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2216,10 +2225,10 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="19"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2312,10 +2321,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -2324,10 +2333,10 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="19"/>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2420,10 +2429,10 @@
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -2432,10 +2441,10 @@
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="19"/>
       <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2520,10 +2529,10 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
@@ -2532,10 +2541,10 @@
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="15"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
@@ -2608,10 +2617,10 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
@@ -2620,10 +2629,10 @@
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="15"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
@@ -2696,10 +2705,10 @@
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="15"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
@@ -2708,10 +2717,10 @@
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="15"/>
+      <c r="G51" s="19"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -2784,19 +2793,19 @@
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="15"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
@@ -2805,10 +2814,10 @@
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="15"/>
+      <c r="G63" s="19"/>
       <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
@@ -2901,10 +2910,10 @@
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="15"/>
+      <c r="D71" s="19"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
@@ -2913,10 +2922,10 @@
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="F72" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="15"/>
+      <c r="G72" s="19"/>
       <c r="I72" s="2" t="s">
         <v>56</v>
       </c>
@@ -3009,10 +3018,10 @@
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="15"/>
+      <c r="D80" s="19"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
@@ -3021,10 +3030,10 @@
       <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="15" t="s">
+      <c r="F81" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="15"/>
+      <c r="G81" s="19"/>
       <c r="I81" s="2" t="s">
         <v>61</v>
       </c>
@@ -3109,10 +3118,10 @@
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="15"/>
+      <c r="D89" s="19"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
@@ -3121,10 +3130,10 @@
       <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="15"/>
+      <c r="G90" s="19"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
@@ -3197,10 +3206,10 @@
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="15"/>
+      <c r="D98" s="19"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
@@ -3209,10 +3218,10 @@
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="15" t="s">
+      <c r="F99" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G99" s="15"/>
+      <c r="G99" s="19"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
@@ -3285,10 +3294,10 @@
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="15"/>
+      <c r="D107" s="19"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
@@ -3297,10 +3306,10 @@
       <c r="D108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="F108" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="15"/>
+      <c r="G108" s="19"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
@@ -3374,26 +3383,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C80:D80"/>
     <mergeCell ref="C107:D107"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="F81:G81"/>
@@ -3401,6 +3390,26 @@
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F99:G99"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6043,10 +6052,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B25"/>
+  <dimension ref="B2:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6056,7 +6065,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6106,22 +6115,22 @@
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="16" t="s">
         <v>505</v>
       </c>
     </row>
@@ -6143,6 +6152,41 @@
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="14" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" firstSheet="14" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="MaxMinTests" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="arrays" sheetId="24" r:id="rId24"/>
     <sheet name="alliases" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
@@ -1771,7 +1771,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1795,20 +1795,23 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Акцент5" xfId="2" builtinId="46"/>
+    <cellStyle name="40% - Акцент1" xfId="1" builtinId="31"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1889,9 +1892,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1929,7 +1932,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2001,7 +2004,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2196,12 +2199,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="18" t="s">
@@ -2213,10 +2216,10 @@
       <c r="G3" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2225,10 +2228,10 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="17"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2321,10 +2324,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -2333,10 +2336,10 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="17"/>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2429,10 +2432,10 @@
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -2441,10 +2444,10 @@
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="17"/>
       <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2529,10 +2532,10 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
@@ -2541,10 +2544,10 @@
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="19"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
@@ -2617,10 +2620,10 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
@@ -2629,10 +2632,10 @@
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
@@ -2705,10 +2708,10 @@
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
@@ -2717,10 +2720,10 @@
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="19"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -2802,10 +2805,10 @@
       <c r="G60" s="18"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="19"/>
+      <c r="D62" s="17"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
@@ -2814,10 +2817,10 @@
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="19"/>
+      <c r="G63" s="17"/>
       <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
@@ -2910,10 +2913,10 @@
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="19"/>
+      <c r="D71" s="17"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
@@ -2922,10 +2925,10 @@
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="19"/>
+      <c r="G72" s="17"/>
       <c r="I72" s="2" t="s">
         <v>56</v>
       </c>
@@ -3018,10 +3021,10 @@
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="17"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
@@ -3030,10 +3033,10 @@
       <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F81" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="19"/>
+      <c r="G81" s="17"/>
       <c r="I81" s="2" t="s">
         <v>61</v>
       </c>
@@ -3118,10 +3121,10 @@
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="17"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
@@ -3130,10 +3133,10 @@
       <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="19" t="s">
+      <c r="F90" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="19"/>
+      <c r="G90" s="17"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
@@ -3206,10 +3209,10 @@
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="19"/>
+      <c r="D98" s="17"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
@@ -3218,10 +3221,10 @@
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="19" t="s">
+      <c r="F99" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G99" s="19"/>
+      <c r="G99" s="17"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
@@ -3294,10 +3297,10 @@
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="19"/>
+      <c r="D107" s="17"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
@@ -3306,10 +3309,10 @@
       <c r="D108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="19" t="s">
+      <c r="F108" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="19"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
@@ -3383,6 +3386,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C80:D80"/>
     <mergeCell ref="C107:D107"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="F81:G81"/>
@@ -3390,26 +3413,6 @@
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F99:G99"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3434,12 +3437,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
@@ -3568,12 +3571,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
@@ -5136,12 +5139,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6054,14 +6057,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
@@ -6095,7 +6098,7 @@
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="20" t="s">
         <v>504</v>
       </c>
     </row>
@@ -6213,12 +6216,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6480,12 +6483,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6735,12 +6738,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -6912,12 +6915,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
@@ -7122,12 +7125,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" firstSheet="14" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" firstSheet="10" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="MaxMinTests" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="507">
   <si>
     <t>Tests to test rules helper methods for Max and Min value of different types</t>
   </si>
@@ -1531,42 +1531,15 @@
     <t>Method Object[] testFlatten(Object[] data)</t>
   </si>
   <si>
-    <t>Data String agency</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>Agency</t>
-  </si>
-  <si>
-    <t>return getValues(agency);</t>
-  </si>
-  <si>
     <t>Method Object[] testGetValuesAlias()</t>
   </si>
   <si>
-    <t>Method Object[] testGetValuesData()</t>
-  </si>
-  <si>
     <t>Datatype Agency &lt;String&gt;</t>
   </si>
   <si>
     <t>return getValues(Agency);</t>
   </si>
   <si>
-    <t>Data4</t>
-  </si>
-  <si>
-    <t>Data0</t>
-  </si>
-  <si>
-    <t>Data2</t>
-  </si>
-  <si>
-    <t>Data1</t>
-  </si>
-  <si>
     <t>Alias1</t>
   </si>
   <si>
@@ -1577,12 +1550,6 @@
   </si>
   <si>
     <t>Alias4</t>
-  </si>
-  <si>
-    <t>Method Object[] testGetValuesWrongType()</t>
-  </si>
-  <si>
-    <t>return getValues("ABC");</t>
   </si>
   <si>
     <t>Datatype Primes &lt;Integer&gt;</t>
@@ -1598,21 +1565,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1768,50 +1727,48 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Акцент5" xfId="2" builtinId="46"/>
-    <cellStyle name="40% - Акцент1" xfId="1" builtinId="31"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1892,9 +1849,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1932,7 +1889,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2004,7 +1961,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2199,27 +2156,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2228,10 +2185,10 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2324,10 +2281,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -2336,10 +2293,10 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="16"/>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2432,10 +2389,10 @@
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -2444,10 +2401,10 @@
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="16"/>
       <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2532,10 +2489,10 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
@@ -2544,10 +2501,10 @@
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
@@ -2620,10 +2577,10 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
@@ -2632,10 +2589,10 @@
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="17"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
@@ -2708,10 +2665,10 @@
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="17"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
@@ -2720,10 +2677,10 @@
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="17"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -2796,19 +2753,19 @@
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="17"/>
+      <c r="D62" s="16"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
@@ -2817,10 +2774,10 @@
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="17"/>
+      <c r="G63" s="16"/>
       <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
@@ -2913,10 +2870,10 @@
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="17"/>
+      <c r="D71" s="16"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
@@ -2925,10 +2882,10 @@
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="F72" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="17"/>
+      <c r="G72" s="16"/>
       <c r="I72" s="2" t="s">
         <v>56</v>
       </c>
@@ -3021,10 +2978,10 @@
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="17"/>
+      <c r="D80" s="16"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
@@ -3033,10 +2990,10 @@
       <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F81" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="17"/>
+      <c r="G81" s="16"/>
       <c r="I81" s="2" t="s">
         <v>61</v>
       </c>
@@ -3121,10 +3078,10 @@
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="17"/>
+      <c r="D89" s="16"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
@@ -3133,10 +3090,10 @@
       <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="17" t="s">
+      <c r="F90" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="17"/>
+      <c r="G90" s="16"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
@@ -3209,10 +3166,10 @@
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="17"/>
+      <c r="D98" s="16"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
@@ -3221,10 +3178,10 @@
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G99" s="17"/>
+      <c r="G99" s="16"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
@@ -3297,10 +3254,10 @@
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="17"/>
+      <c r="D107" s="16"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
@@ -3309,10 +3266,10 @@
       <c r="D108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="17" t="s">
+      <c r="F108" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="17"/>
+      <c r="G108" s="16"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
@@ -3437,12 +3394,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
@@ -3571,12 +3528,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
@@ -5139,12 +5096,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6030,7 +5987,7 @@
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6055,10 +6012,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B35"/>
+  <dimension ref="B2:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6068,128 +6025,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>503</v>
+      <c r="B2" s="14" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
-        <v>504</v>
+      <c r="B9" s="15" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>498</v>
+      <c r="B14" s="13">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
-        <v>499</v>
+      <c r="B15" s="13">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>508</v>
+      <c r="B16" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B17" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -6216,12 +6118,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6483,12 +6385,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6738,12 +6640,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -6915,12 +6817,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
@@ -7125,12 +7027,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" firstSheet="10" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="MaxMinTests" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="509">
   <si>
     <t>Tests to test rules helper methods for Max and Min value of different types</t>
   </si>
@@ -1559,6 +1559,12 @@
   </si>
   <si>
     <t>return getValues(Primes);</t>
+  </si>
+  <si>
+    <t>Method Boolean testInstanceOf(Long a)</t>
+  </si>
+  <si>
+    <t>return instanceOf(a, Number.class);</t>
   </si>
 </sst>
 </file>
@@ -1755,20 +1761,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Акцент5" xfId="2" builtinId="46"/>
+    <cellStyle name="40% - Акцент1" xfId="1" builtinId="31"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1849,9 +1855,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1889,7 +1895,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1961,7 +1967,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2156,12 +2162,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="17" t="s">
@@ -2173,10 +2179,10 @@
       <c r="G3" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2185,10 +2191,10 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="18"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2281,10 +2287,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -2293,10 +2299,10 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="18"/>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2389,10 +2395,10 @@
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -2401,10 +2407,10 @@
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="18"/>
       <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2489,10 +2495,10 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
@@ -2501,10 +2507,10 @@
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
@@ -2577,10 +2583,10 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="16"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
@@ -2589,10 +2595,10 @@
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="16"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
@@ -2665,10 +2671,10 @@
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
@@ -2677,10 +2683,10 @@
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="16"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -2762,10 +2768,10 @@
       <c r="G60" s="17"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="16"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
@@ -2774,10 +2780,10 @@
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="16"/>
+      <c r="G63" s="18"/>
       <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
@@ -2870,10 +2876,10 @@
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="16"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
@@ -2882,10 +2888,10 @@
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="16"/>
+      <c r="G72" s="18"/>
       <c r="I72" s="2" t="s">
         <v>56</v>
       </c>
@@ -2978,10 +2984,10 @@
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="16"/>
+      <c r="D80" s="18"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
@@ -2990,10 +2996,10 @@
       <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="16"/>
+      <c r="G81" s="18"/>
       <c r="I81" s="2" t="s">
         <v>61</v>
       </c>
@@ -3078,10 +3084,10 @@
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="16"/>
+      <c r="D89" s="18"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
@@ -3090,10 +3096,10 @@
       <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="16" t="s">
+      <c r="F90" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="16"/>
+      <c r="G90" s="18"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
@@ -3166,10 +3172,10 @@
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="16"/>
+      <c r="D98" s="18"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
@@ -3178,10 +3184,10 @@
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="16" t="s">
+      <c r="F99" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G99" s="16"/>
+      <c r="G99" s="18"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
@@ -3254,10 +3260,10 @@
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="16"/>
+      <c r="D107" s="18"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
@@ -3266,10 +3272,10 @@
       <c r="D108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="16"/>
+      <c r="G108" s="18"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
@@ -3343,26 +3349,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C80:D80"/>
     <mergeCell ref="C107:D107"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="F81:G81"/>
@@ -3370,6 +3356,26 @@
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F99:G99"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3394,12 +3400,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
@@ -3528,12 +3534,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
@@ -4363,10 +4369,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B19"/>
+  <dimension ref="B3:B22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4434,6 +4440,16 @@
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -5096,12 +5112,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6014,7 +6030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -6118,12 +6134,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6385,12 +6401,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6640,12 +6656,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -6817,12 +6833,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
@@ -7027,12 +7043,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="500">
   <si>
     <t>Tests to test rules helper methods for Max and Min value of different types</t>
   </si>
@@ -1046,33 +1046,6 @@
   </si>
   <si>
     <t>Method BigDecimal testBigDecimalProduct(BigDecimal[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method boolean testBoolTypeAllTrue(boolean[] inputArray)</t>
-  </si>
-  <si>
-    <t>return allTrue(inputArray);</t>
-  </si>
-  <si>
-    <t>Method Boolean testBoolAllTrue(Boolean[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method boolean testBoolTypeXor(boolean[] inputArray)</t>
-  </si>
-  <si>
-    <t>return xor(inputArray);</t>
-  </si>
-  <si>
-    <t>Method Boolean testBoolXor(Boolean[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method boolean testBoolTypeAnyTrue(boolean[] inputArray)</t>
-  </si>
-  <si>
-    <t>return anyTrue(inputArray);</t>
-  </si>
-  <si>
-    <t>Method Boolean testBoolAnyTrue(Boolean[] inputArray)</t>
   </si>
   <si>
     <t>Method long testDoubleTypeRound(double num)</t>
@@ -1761,20 +1734,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Акцент5" xfId="2" builtinId="46"/>
-    <cellStyle name="40% - Акцент1" xfId="1" builtinId="31"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1855,9 +1828,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1895,7 +1868,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1967,7 +1940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2162,12 +2135,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="17" t="s">
@@ -2179,10 +2152,10 @@
       <c r="G3" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2191,10 +2164,10 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="16"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2287,10 +2260,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -2299,10 +2272,10 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="16"/>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2395,10 +2368,10 @@
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -2407,10 +2380,10 @@
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="16"/>
       <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2495,10 +2468,10 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
@@ -2507,10 +2480,10 @@
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
@@ -2583,10 +2556,10 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
@@ -2595,10 +2568,10 @@
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
@@ -2671,10 +2644,10 @@
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="18"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
@@ -2683,10 +2656,10 @@
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="18"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -2768,10 +2741,10 @@
       <c r="G60" s="17"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="18"/>
+      <c r="D62" s="16"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
@@ -2780,10 +2753,10 @@
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="18"/>
+      <c r="G63" s="16"/>
       <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
@@ -2876,10 +2849,10 @@
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="18"/>
+      <c r="D71" s="16"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
@@ -2888,10 +2861,10 @@
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="18"/>
+      <c r="G72" s="16"/>
       <c r="I72" s="2" t="s">
         <v>56</v>
       </c>
@@ -2984,10 +2957,10 @@
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="18"/>
+      <c r="D80" s="16"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
@@ -2996,10 +2969,10 @@
       <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="18"/>
+      <c r="G81" s="16"/>
       <c r="I81" s="2" t="s">
         <v>61</v>
       </c>
@@ -3084,10 +3057,10 @@
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="18"/>
+      <c r="D89" s="16"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
@@ -3096,10 +3069,10 @@
       <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="18" t="s">
+      <c r="F90" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="18"/>
+      <c r="G90" s="16"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
@@ -3172,10 +3145,10 @@
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="18"/>
+      <c r="D98" s="16"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
@@ -3184,10 +3157,10 @@
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="18" t="s">
+      <c r="F99" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G99" s="18"/>
+      <c r="G99" s="16"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
@@ -3260,10 +3233,10 @@
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="18"/>
+      <c r="D107" s="16"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
@@ -3272,10 +3245,10 @@
       <c r="D108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="18" t="s">
+      <c r="F108" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="18"/>
+      <c r="G108" s="16"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
@@ -3349,6 +3322,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C80:D80"/>
     <mergeCell ref="C107:D107"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="F81:G81"/>
@@ -3356,26 +3349,6 @@
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F99:G99"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3400,12 +3373,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
@@ -3534,12 +3507,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
@@ -4369,87 +4342,25 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B22"/>
+  <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125"/>
     <col min="2" max="2" width="49.28515625"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="3" max="1012" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>336</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4479,92 +4390,92 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4596,162 +4507,162 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4783,186 +4694,186 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4992,92 +4903,92 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -5112,12 +5023,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -5335,146 +5246,146 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -5504,112 +5415,112 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5639,102 +5550,102 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -5766,226 +5677,226 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -6013,12 +5924,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -6042,42 +5953,42 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
@@ -6102,12 +6013,12 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -6134,12 +6045,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6401,12 +6312,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6656,12 +6567,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -6833,12 +6744,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
@@ -7043,12 +6954,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="MaxMinTests" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,12 @@
     <sheet name="arrays" sheetId="24" r:id="rId24"/>
     <sheet name="alliases" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="498">
   <si>
     <t>Tests to test rules helper methods for Max and Min value of different types</t>
   </si>
@@ -601,13 +601,7 @@
     <t>return format(num);</t>
   </si>
   <si>
-    <t>Method void testErrorThrowable(Throwable e) throws Throwable</t>
-  </si>
-  <si>
     <t>Method String formatDoubleWithFrm(double num, String format)</t>
-  </si>
-  <si>
-    <t>return error(e);</t>
   </si>
   <si>
     <t>return format(num, format);</t>
@@ -1734,13 +1728,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2135,12 +2129,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="17" t="s">
@@ -2152,10 +2146,10 @@
       <c r="G3" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2164,10 +2158,10 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="18"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2260,10 +2254,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -2272,10 +2266,10 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="18"/>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2368,10 +2362,10 @@
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -2380,10 +2374,10 @@
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="18"/>
       <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2468,10 +2462,10 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
@@ -2480,10 +2474,10 @@
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
@@ -2556,10 +2550,10 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="16"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
@@ -2568,10 +2562,10 @@
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="16"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
@@ -2644,10 +2638,10 @@
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
@@ -2656,10 +2650,10 @@
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="16"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -2741,10 +2735,10 @@
       <c r="G60" s="17"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="16"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
@@ -2753,10 +2747,10 @@
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="16"/>
+      <c r="G63" s="18"/>
       <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
@@ -2849,10 +2843,10 @@
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="16"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
@@ -2861,10 +2855,10 @@
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="16"/>
+      <c r="G72" s="18"/>
       <c r="I72" s="2" t="s">
         <v>56</v>
       </c>
@@ -2957,10 +2951,10 @@
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="16"/>
+      <c r="D80" s="18"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
@@ -2969,10 +2963,10 @@
       <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="16"/>
+      <c r="G81" s="18"/>
       <c r="I81" s="2" t="s">
         <v>61</v>
       </c>
@@ -3057,10 +3051,10 @@
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="16"/>
+      <c r="D89" s="18"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
@@ -3069,10 +3063,10 @@
       <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="16" t="s">
+      <c r="F90" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="16"/>
+      <c r="G90" s="18"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
@@ -3145,10 +3139,10 @@
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="16"/>
+      <c r="D98" s="18"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
@@ -3157,10 +3151,10 @@
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="16" t="s">
+      <c r="F99" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G99" s="16"/>
+      <c r="G99" s="18"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
@@ -3233,10 +3227,10 @@
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="16"/>
+      <c r="D107" s="18"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
@@ -3245,10 +3239,10 @@
       <c r="D108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="16"/>
+      <c r="G108" s="18"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
@@ -3322,26 +3316,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C80:D80"/>
     <mergeCell ref="C107:D107"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="F81:G81"/>
@@ -3349,6 +3323,26 @@
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F99:G99"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3373,111 +3367,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3507,127 +3501,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3656,12 +3650,12 @@
   <sheetData>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3687,12 +3681,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -3700,12 +3694,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -3713,12 +3707,12 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
@@ -3726,12 +3720,12 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
@@ -3739,12 +3733,12 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
@@ -3752,12 +3746,12 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
@@ -3765,12 +3759,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
@@ -3778,12 +3772,12 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
@@ -3791,12 +3785,12 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
@@ -3804,12 +3798,12 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
@@ -3817,12 +3811,12 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3830,12 +3824,12 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
@@ -3843,12 +3837,12 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
@@ -3856,12 +3850,12 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
@@ -3869,12 +3863,12 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
@@ -3882,12 +3876,12 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -3895,12 +3889,12 @@
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
@@ -3908,12 +3902,12 @@
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
@@ -3921,12 +3915,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -3934,12 +3928,12 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
@@ -3947,12 +3941,12 @@
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
@@ -3960,12 +3954,12 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
@@ -3973,172 +3967,172 @@
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4166,20 +4160,20 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -4189,20 +4183,20 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -4212,20 +4206,20 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -4235,20 +4229,20 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -4258,20 +4252,20 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -4281,20 +4275,20 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -4305,13 +4299,13 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="12"/>
       <c r="D20" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12"/>
       <c r="D21" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -4321,13 +4315,13 @@
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
       <c r="D23" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="12"/>
       <c r="D24" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4344,7 +4338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4355,12 +4351,12 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -4390,92 +4386,92 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4507,162 +4503,162 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4694,186 +4690,186 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4903,92 +4899,92 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -5023,12 +5019,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -5246,146 +5242,146 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -5415,112 +5411,112 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -5550,102 +5546,102 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -5677,226 +5673,226 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -5924,12 +5920,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -5953,42 +5949,42 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
@@ -6013,12 +6009,12 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -6045,12 +6041,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6312,12 +6308,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6567,12 +6563,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -6744,12 +6740,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
@@ -6885,8 +6881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6914,20 +6910,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="7" t="s">
+    </row>
+    <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="8" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6954,187 +6945,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -4,41 +4,41 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" activeTab="7"/>
+    <workbookView activeTab="7" windowHeight="8130" windowWidth="16380" xWindow="0" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet name="MaxMinTests" sheetId="1" r:id="rId1"/>
-    <sheet name="Mod" sheetId="2" r:id="rId2"/>
-    <sheet name="Slice" sheetId="3" r:id="rId3"/>
-    <sheet name="Sort" sheetId="4" r:id="rId4"/>
-    <sheet name="Contains" sheetId="5" r:id="rId5"/>
-    <sheet name="IndexOf" sheetId="6" r:id="rId6"/>
-    <sheet name="noNulls" sheetId="7" r:id="rId7"/>
-    <sheet name="error and format" sheetId="8" r:id="rId8"/>
-    <sheet name="Quotient" sheetId="9" r:id="rId9"/>
-    <sheet name="Sum" sheetId="10" r:id="rId10"/>
-    <sheet name="Avg" sheetId="11" r:id="rId11"/>
-    <sheet name="logical functions" sheetId="12" r:id="rId12"/>
-    <sheet name="Differents" sheetId="13" r:id="rId13"/>
-    <sheet name="Product" sheetId="14" r:id="rId14"/>
-    <sheet name="Logical" sheetId="15" r:id="rId15"/>
-    <sheet name="Round" sheetId="16" r:id="rId16"/>
-    <sheet name="MaxMinTests2" sheetId="17" r:id="rId17"/>
-    <sheet name="Add" sheetId="18" r:id="rId18"/>
-    <sheet name="AddAll" sheetId="19" r:id="rId19"/>
-    <sheet name="Remove" sheetId="20" r:id="rId20"/>
-    <sheet name="Empty" sheetId="21" r:id="rId21"/>
-    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
-    <sheet name="small and big" sheetId="23" r:id="rId23"/>
-    <sheet name="arrays" sheetId="24" r:id="rId24"/>
-    <sheet name="alliases" sheetId="25" r:id="rId25"/>
+    <sheet name="MaxMinTests" r:id="rId1" sheetId="1"/>
+    <sheet name="Mod" r:id="rId2" sheetId="2"/>
+    <sheet name="Slice" r:id="rId3" sheetId="3"/>
+    <sheet name="Sort" r:id="rId4" sheetId="4"/>
+    <sheet name="Contains" r:id="rId5" sheetId="5"/>
+    <sheet name="IndexOf" r:id="rId6" sheetId="6"/>
+    <sheet name="noNulls" r:id="rId7" sheetId="7"/>
+    <sheet name="error and format" r:id="rId8" sheetId="8"/>
+    <sheet name="Quotient" r:id="rId9" sheetId="9"/>
+    <sheet name="Sum" r:id="rId10" sheetId="10"/>
+    <sheet name="Avg" r:id="rId11" sheetId="11"/>
+    <sheet name="logical functions" r:id="rId12" sheetId="12"/>
+    <sheet name="Differents" r:id="rId13" sheetId="13"/>
+    <sheet name="Product" r:id="rId14" sheetId="14"/>
+    <sheet name="Logical" r:id="rId15" sheetId="15"/>
+    <sheet name="Round" r:id="rId16" sheetId="16"/>
+    <sheet name="MaxMinTests2" r:id="rId17" sheetId="17"/>
+    <sheet name="Add" r:id="rId18" sheetId="18"/>
+    <sheet name="AddAll" r:id="rId19" sheetId="19"/>
+    <sheet name="Remove" r:id="rId20" sheetId="20"/>
+    <sheet name="Empty" r:id="rId21" sheetId="21"/>
+    <sheet name="Sheet22" r:id="rId22" sheetId="22"/>
+    <sheet name="small and big" r:id="rId23" sheetId="23"/>
+    <sheet name="arrays" r:id="rId24" sheetId="24"/>
+    <sheet name="alliases" r:id="rId25" sheetId="25"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="507">
   <si>
     <t>Tests to test rules helper methods for Max and Min value of different types</t>
   </si>
@@ -1532,12 +1532,40 @@
   </si>
   <si>
     <t>return instanceOf(a, Number.class);</t>
+  </si>
+  <si>
+    <t>Method BigDecimalValue testAvgBigInteger(BigIntegerValue[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testAvgByteType(byte[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Double testAvgByte(java.lang.Byte[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testAvgIntegerType(int[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Double testAvgInteger(java.lang.Integer[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testAvgLongType(long[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Double testAvgLong(java.lang.Long[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testAvgShortType(short[] values)</t>
+  </si>
+  <si>
+    <t>Method java.lang.Double testAvgShort(java.lang.Short[] values)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1699,52 +1727,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="2"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="9" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="12" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="11" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="10" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1826,10 +1854,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1987,7 +2015,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1996,13 +2024,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2012,7 +2040,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2021,7 +2049,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2030,7 +2058,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2040,12 +2068,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2076,7 +2104,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2095,7 +2123,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2107,25 +2135,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125"/>
-    <col min="3" max="3" width="19.5703125"/>
-    <col min="4" max="4" width="38.42578125"/>
-    <col min="5" max="5" width="9.5703125"/>
-    <col min="6" max="6" width="28.85546875"/>
-    <col min="7" max="7" width="38.42578125"/>
-    <col min="8" max="8" width="9.5703125"/>
-    <col min="9" max="9" width="72.85546875"/>
-    <col min="10" max="10" width="27.28515625"/>
-    <col min="11" max="1025" width="9.5703125"/>
+    <col min="1" max="2" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" width="38.42578125" collapsed="true"/>
+    <col min="5" max="5" width="9.5703125" collapsed="true"/>
+    <col min="6" max="6" width="28.85546875" collapsed="true"/>
+    <col min="7" max="7" width="38.42578125" collapsed="true"/>
+    <col min="8" max="8" width="9.5703125" collapsed="true"/>
+    <col min="9" max="9" width="72.85546875" collapsed="true"/>
+    <col min="10" max="10" width="27.28515625" collapsed="true"/>
+    <col min="11" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3344,26 +3372,26 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C14:D14"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125"/>
-    <col min="3" max="3" width="78.7109375"/>
-    <col min="4" max="4" width="9.5703125"/>
-    <col min="5" max="5" width="78.7109375"/>
-    <col min="6" max="1025" width="9.5703125"/>
+    <col min="1" max="2" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" width="78.7109375" collapsed="true"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3478,26 +3506,26 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.5703125"/>
-    <col min="4" max="4" width="62.42578125"/>
-    <col min="5" max="5" width="9.5703125"/>
-    <col min="6" max="6" width="62.42578125"/>
-    <col min="7" max="1025" width="9.5703125"/>
+    <col min="1" max="3" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" width="62.42578125" collapsed="true"/>
+    <col min="5" max="5" width="9.5703125" collapsed="true"/>
+    <col min="6" max="6" width="62.42578125" collapsed="true"/>
+    <col min="7" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3513,7 +3541,7 @@
         <v>228</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>229</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3526,10 +3554,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>231</v>
+        <v>498</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>232</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3542,10 +3570,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
-        <v>233</v>
+        <v>499</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>234</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3558,10 +3586,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
-        <v>235</v>
+        <v>505</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>236</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3574,7 +3602,7 @@
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
-        <v>237</v>
+        <v>501</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>238</v>
@@ -3590,7 +3618,7 @@
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>239</v>
+        <v>503</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>240</v>
@@ -3628,24 +3656,24 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125"/>
-    <col min="3" max="3" width="38.85546875"/>
-    <col min="4" max="1025" width="9.5703125"/>
+    <col min="1" max="2" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" width="38.85546875" collapsed="true"/>
+    <col min="4" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
@@ -3659,24 +3687,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125"/>
-    <col min="2" max="2" width="82.42578125"/>
-    <col min="3" max="1025" width="9.5703125"/>
+    <col min="1" max="1" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" width="82.42578125" collapsed="true"/>
+    <col min="3" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
@@ -4136,26 +4164,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625"/>
-    <col min="2" max="2" width="45.85546875"/>
-    <col min="3" max="3" width="10.28515625"/>
-    <col min="4" max="4" width="39"/>
-    <col min="5" max="1025" width="10.28515625"/>
+    <col min="1" max="1" width="10.28515625" collapsed="true"/>
+    <col min="2" max="2" width="45.85546875" collapsed="true"/>
+    <col min="3" max="3" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" width="39.0" collapsed="true"/>
+    <col min="5" max="1025" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -4325,8 +4353,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4335,18 +4363,18 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="49.28515625"/>
-    <col min="3" max="1012" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="49.28515625" collapsed="true"/>
+    <col min="3" max="1012" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -4360,8 +4388,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4370,18 +4398,18 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="51.28515625"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="51.28515625" collapsed="true"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -4475,8 +4503,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4485,20 +4513,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="50.28515625"/>
-    <col min="3" max="3" width="11.5703125"/>
-    <col min="4" max="4" width="56.42578125"/>
-    <col min="5" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="50.28515625" collapsed="true"/>
+    <col min="3" max="3" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" width="56.42578125" collapsed="true"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -4662,8 +4690,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4672,20 +4700,20 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="70.140625"/>
-    <col min="3" max="3" width="11.5703125"/>
-    <col min="4" max="4" width="68"/>
-    <col min="5" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" width="68.0" collapsed="true"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -4873,8 +4901,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4883,18 +4911,18 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="56.42578125"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="56.42578125" collapsed="true"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
@@ -4988,8 +5016,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4998,24 +5026,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125"/>
-    <col min="2" max="2" width="9.5703125"/>
-    <col min="3" max="3" width="72.85546875"/>
-    <col min="4" max="4" width="9.5703125"/>
-    <col min="5" max="5" width="72.85546875"/>
-    <col min="6" max="6" width="9.5703125"/>
-    <col min="7" max="7" width="19.5703125"/>
-    <col min="8" max="8" width="38.42578125"/>
-    <col min="9" max="1025" width="9.5703125"/>
+    <col min="1" max="1" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" width="72.85546875" collapsed="true"/>
+    <col min="4" max="4" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" width="72.85546875" collapsed="true"/>
+    <col min="6" max="6" width="9.5703125" collapsed="true"/>
+    <col min="7" max="7" width="19.5703125" collapsed="true"/>
+    <col min="8" max="8" width="38.42578125" collapsed="true"/>
+    <col min="9" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5218,26 +5246,26 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="53.42578125"/>
-    <col min="3" max="3" width="11.5703125"/>
-    <col min="4" max="4" width="57.5703125"/>
-    <col min="5" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="53.42578125" collapsed="true"/>
+    <col min="3" max="3" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" width="57.5703125" collapsed="true"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -5385,8 +5413,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5395,18 +5423,18 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="62.28515625"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="62.28515625" collapsed="true"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
@@ -5520,8 +5548,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5530,18 +5558,18 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="78.85546875"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="78.85546875" collapsed="true"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
@@ -5645,8 +5673,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5655,20 +5683,20 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="50"/>
-    <col min="3" max="3" width="11.5703125"/>
-    <col min="4" max="4" width="65.42578125"/>
-    <col min="5" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="50.0" collapsed="true"/>
+    <col min="3" max="3" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" width="65.42578125" collapsed="true"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -5896,8 +5924,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5906,8 +5934,8 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -5915,7 +5943,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
@@ -5929,13 +5957,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -5943,8 +5971,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
@@ -6018,26 +6046,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125"/>
-    <col min="2" max="2" width="9.5703125"/>
-    <col min="3" max="3" width="72.85546875"/>
-    <col min="4" max="4" width="9.5703125"/>
-    <col min="5" max="5" width="72.85546875"/>
-    <col min="6" max="1025" width="9.5703125"/>
+    <col min="1" max="1" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" width="72.85546875" collapsed="true"/>
+    <col min="4" max="4" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" width="72.85546875" collapsed="true"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6284,27 +6312,27 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125"/>
-    <col min="2" max="2" width="9.5703125"/>
-    <col min="3" max="3" width="72.85546875"/>
-    <col min="4" max="4" width="9.5703125"/>
-    <col min="5" max="5" width="72.85546875"/>
-    <col min="6" max="1025" width="9.5703125"/>
+    <col min="1" max="1" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" width="72.85546875" collapsed="true"/>
+    <col min="4" max="4" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" width="72.85546875" collapsed="true"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6539,27 +6567,27 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125"/>
-    <col min="2" max="2" width="9.5703125"/>
-    <col min="3" max="3" width="82.42578125"/>
-    <col min="4" max="4" width="9.5703125"/>
-    <col min="5" max="5" width="93.28515625"/>
-    <col min="6" max="1025" width="9.5703125"/>
+    <col min="1" max="1" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" width="82.42578125" collapsed="true"/>
+    <col min="4" max="4" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" width="93.28515625" collapsed="true"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6718,25 +6746,25 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125"/>
-    <col min="2" max="2" width="9.5703125"/>
-    <col min="3" max="3" width="82.42578125"/>
-    <col min="4" max="1025" width="9.5703125"/>
+    <col min="1" max="1" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" width="82.42578125" collapsed="true"/>
+    <col min="4" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6841,24 +6869,24 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125"/>
-    <col min="2" max="2" width="82.42578125"/>
-    <col min="3" max="1025" width="9.5703125"/>
+    <col min="1" max="1" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" width="82.42578125" collapsed="true"/>
+    <col min="3" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -6872,26 +6900,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125"/>
-    <col min="2" max="2" width="82.42578125"/>
-    <col min="3" max="3" width="9.5703125"/>
-    <col min="4" max="4" width="82.42578125"/>
-    <col min="5" max="1025" width="9.5703125"/>
+    <col min="1" max="1" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" width="82.42578125" collapsed="true"/>
+    <col min="3" max="3" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" width="82.42578125" collapsed="true"/>
+    <col min="5" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -6910,38 +6938,38 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="5" spans="2:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row ht="16.5" r="6" spans="2:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D6" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="16.5" r="7" spans="2:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D7" s="8" t="s">
         <v>188</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125"/>
-    <col min="2" max="2" width="72.85546875"/>
-    <col min="3" max="3" width="9.5703125"/>
-    <col min="4" max="4" width="72.85546875"/>
-    <col min="5" max="1025" width="9.5703125"/>
+    <col min="1" max="1" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" width="72.85546875" collapsed="true"/>
+    <col min="3" max="3" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" width="72.85546875" collapsed="true"/>
+    <col min="5" max="1025" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7132,7 +7160,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -1,44 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvlad\Documents\EIS\OpenL\openl-pub\DEV\org.openl.rules\test\rules\helpers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="7" windowHeight="8130" windowWidth="16380" xWindow="0" yWindow="60"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="891" firstSheet="7" activeTab="19"/>
   </bookViews>
   <sheets>
-    <sheet name="MaxMinTests" r:id="rId1" sheetId="1"/>
-    <sheet name="Mod" r:id="rId2" sheetId="2"/>
-    <sheet name="Slice" r:id="rId3" sheetId="3"/>
-    <sheet name="Sort" r:id="rId4" sheetId="4"/>
-    <sheet name="Contains" r:id="rId5" sheetId="5"/>
-    <sheet name="IndexOf" r:id="rId6" sheetId="6"/>
-    <sheet name="noNulls" r:id="rId7" sheetId="7"/>
-    <sheet name="error and format" r:id="rId8" sheetId="8"/>
-    <sheet name="Quotient" r:id="rId9" sheetId="9"/>
-    <sheet name="Sum" r:id="rId10" sheetId="10"/>
-    <sheet name="Avg" r:id="rId11" sheetId="11"/>
-    <sheet name="logical functions" r:id="rId12" sheetId="12"/>
-    <sheet name="Differents" r:id="rId13" sheetId="13"/>
-    <sheet name="Product" r:id="rId14" sheetId="14"/>
-    <sheet name="Logical" r:id="rId15" sheetId="15"/>
-    <sheet name="Round" r:id="rId16" sheetId="16"/>
-    <sheet name="MaxMinTests2" r:id="rId17" sheetId="17"/>
-    <sheet name="Add" r:id="rId18" sheetId="18"/>
-    <sheet name="AddAll" r:id="rId19" sheetId="19"/>
-    <sheet name="Remove" r:id="rId20" sheetId="20"/>
-    <sheet name="Empty" r:id="rId21" sheetId="21"/>
-    <sheet name="Sheet22" r:id="rId22" sheetId="22"/>
-    <sheet name="small and big" r:id="rId23" sheetId="23"/>
-    <sheet name="arrays" r:id="rId24" sheetId="24"/>
-    <sheet name="alliases" r:id="rId25" sheetId="25"/>
+    <sheet name="MaxMinTests" sheetId="1" r:id="rId1"/>
+    <sheet name="Mod" sheetId="2" r:id="rId2"/>
+    <sheet name="Slice" sheetId="3" r:id="rId3"/>
+    <sheet name="Sort" sheetId="4" r:id="rId4"/>
+    <sheet name="Contains" sheetId="5" r:id="rId5"/>
+    <sheet name="IndexOf" sheetId="6" r:id="rId6"/>
+    <sheet name="noNulls" sheetId="7" r:id="rId7"/>
+    <sheet name="error and format" sheetId="8" r:id="rId8"/>
+    <sheet name="Quotient" sheetId="9" r:id="rId9"/>
+    <sheet name="Sum" sheetId="10" r:id="rId10"/>
+    <sheet name="Avg" sheetId="11" r:id="rId11"/>
+    <sheet name="logical functions" sheetId="12" r:id="rId12"/>
+    <sheet name="Differents" sheetId="13" r:id="rId13"/>
+    <sheet name="Product" sheetId="14" r:id="rId14"/>
+    <sheet name="Logical" sheetId="15" r:id="rId15"/>
+    <sheet name="Round" sheetId="16" r:id="rId16"/>
+    <sheet name="MaxMinTests2" sheetId="17" r:id="rId17"/>
+    <sheet name="Add" sheetId="18" r:id="rId18"/>
+    <sheet name="AddAll" sheetId="19" r:id="rId19"/>
+    <sheet name="Remove" sheetId="20" r:id="rId20"/>
+    <sheet name="Empty" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="small and big" sheetId="23" r:id="rId23"/>
+    <sheet name="arrays" sheetId="24" r:id="rId24"/>
+    <sheet name="alliases" sheetId="25" r:id="rId25"/>
+    <sheet name="median" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="599">
   <si>
     <t>Tests to test rules helper methods for Max and Min value of different types</t>
   </si>
@@ -505,84 +511,12 @@
     <t>return contains(searchIn, searchFor);</t>
   </si>
   <si>
-    <t>Method boolean testContainsIntegerInIntegerArr(int[] searchIn, int searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsIntegerArrInIntegerArr(int[] searchIn, int[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsLongInLongArr(long[] searchIn, long searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsLongArrInLongArr(long[] searchIn, long[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsByteInByteArr(byte[] searchIn, byte searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsByteArrInByteArr(byte[] searchIn, byte[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsShortInShortArr(short[] searchIn, short searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsShortArrInShortArr(short[] searchIn, short[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsCharInCharArr(char[] searchIn, char searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsFloatArrInFloatArr(float[] searchIn, float[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsFloatInFloatArr(float[] searchIn, float searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsDoubleArrInDoubleArr(double[] searchIn, double[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsDoubleInDoubleArr(double[] searchIn, double searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsBoolArrInBoolArr(boolean[] searchIn, boolean[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsBoolInBoolArr(boolean[] searchIn, boolean searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsCharArrInCharArr(char[] searchIn, char[] searchFor)</t>
-  </si>
-  <si>
     <t>Method int testIndexOfObject(Object[] searchIn, Object searchFor)</t>
   </si>
   <si>
     <t>return indexOf(searchIn, searchFor);</t>
   </si>
   <si>
-    <t>Method int testIndexOfInteger(int[] searchIn, int searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfLong(long[] searchIn, long searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfByte(byte[] searchIn, byte searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfShort(short[] searchIn, short searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfChar(char[] searchIn, char searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfFloat(float[] searchIn, float searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfDouble(double[] searchIn, double searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfBool(boolean[] searchIn, boolean searchFor)</t>
-  </si>
-  <si>
     <t>Method boolean testNoNullsObject(Object[] searchIn)</t>
   </si>
   <si>
@@ -727,39 +661,12 @@
     <t>Method BigDecimalValue testAvgBigDecimal(BigDecimalValue[] values)</t>
   </si>
   <si>
-    <t>Method java.lang.Byte testAvgByte(java.lang.Byte[] values)</t>
-  </si>
-  <si>
     <t>return avg(values);</t>
   </si>
   <si>
-    <t>Method BigIntegerValue testAvgBigInteger(BigIntegerValue[] values)</t>
-  </si>
-  <si>
-    <t>Method java.lang.Short testAvgShort(java.lang.Short[] values)</t>
-  </si>
-  <si>
-    <t>Method byte testAvgByteType(byte[] values)</t>
-  </si>
-  <si>
-    <t>Method java.lang.Integer testAvgInteger(java.lang.Integer[] values)</t>
-  </si>
-  <si>
-    <t>Method short testAvgShortType(short[] values)</t>
-  </si>
-  <si>
-    <t>Method java.lang.Long testAvgLong(java.lang.Long[] values)</t>
-  </si>
-  <si>
-    <t>Method int testAvgIntegerType(int[] values)</t>
-  </si>
-  <si>
     <t>Method java.lang.Float testAvgFloat(java.lang.Float[] values)</t>
   </si>
   <si>
-    <t>Method long testAvgLongType(long[] values)</t>
-  </si>
-  <si>
     <t>Method java.lang.Double testAvgDouble(java.lang.Double[] values)</t>
   </si>
   <si>
@@ -1559,14 +1466,388 @@
   </si>
   <si>
     <t>Method java.lang.Double testAvgShort(java.lang.Short[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMaxDouble(Double[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMaxDoubleType(double[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMinDouble(Double[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMinDoubleType(double[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testSumDouble(Double[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testSumDoubleType(double[] values)</t>
+  </si>
+  <si>
+    <t>Method java.math.BigDecimal testAvgBigDecimalArray(java.math.BigDecimal[] values)</t>
+  </si>
+  <si>
+    <t>Method java.math.BigDecimal testAvgBigIntegerArray(java.math.BigInteger[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianByte(Byte[] values)</t>
+  </si>
+  <si>
+    <t>return median(values);</t>
+  </si>
+  <si>
+    <t>Method Double testMedianShort(Short[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianInteger(Integer[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianLong(Long[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianDouble(Double[] values)</t>
+  </si>
+  <si>
+    <t>Method BigInteger testMedianBigInteger(BigInteger[] values)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal testMedianBigDecimal(BigDecimal[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianByteType(byte[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianShortType(short[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianIntegerType(int[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianLongType(long[] values)</t>
+  </si>
+  <si>
+    <t>Method Float testMedianFloatType(float[] values)</t>
+  </si>
+  <si>
+    <t>Method Float testMedianFloat(Float[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianDoubleType(double[] values)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsBoolTypeInBoolArr(boolean[] searchIn, boolean searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleTypeInDoubleArr(double[] searchIn, double searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsFloatTypeInFloatArr(float[] searchIn, float searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharTypeInCharArr(char[] searchIn, char searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsByteTypeInByteArr(byte[] searchIn, byte searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsLongTypeInLongArr(long[] searchIn, long searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerTypeInIntegerArr(int[] searchIn, int searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerInIntegerArr(Integer[] searchIn, Integer searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsByteInByteArr(Byte[] searchIn, Byte searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsShortInShortArr(Short[] searchIn, Short searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharInCharArr(Character[] searchIn, Character searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsFloatInFloatArr(Float[] searchIn, Float searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleInDoubleArr(Double[] searchIn, Double searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsBoolInBoolArr(Boolean[] searchIn, Boolean searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsLongInLongArr(Long[] searchIn,Long searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsShortTypeInShortArr(short[] searchIn, short searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerTypeArrInIntegerArr(int[] searchIn, int[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsLongTypeArrInLongArr(long[] searchIn, long[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsByteTypeArrInByteArr(byte[] searchIn, byte[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsShortTypeArrInShortArr(short[] searchIn, short[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsFloatTypeArrInFloatArr(float[] searchIn, float[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleTypeArrInDoubleArr(double[] searchIn, double[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsBoolTypeArrInBoolArr(boolean[] searchIn, boolean[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharTypeArrInCharArr(char[] searchIn, char[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerArrInIntegerArr(Integer[] searchIn, Integer[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsLongArrInLongArr(Long[] searchIn, Long[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsByteArrInByteArr(Byte[] searchIn, Byte[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsShortArrInShortArr(Short[] searchIn, Short[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsFloatArrInFloatArr(Float[] searchIn, Float[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleArrInDoubleArr(Double[] searchIn, Double[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsBoolArrInBoolArr(Boolean[] searchIn, Boolean[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharArrInCharArr(Character[] searchIn, Character[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsStringArrInStringArr(String[] searchIn, String[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfIntegerType(int[] searchIn, int searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfLongType(long[] searchIn, long searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfByteType(byte[] searchIn, byte searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfShortType(short[] searchIn, short searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfCharType(char[] searchIn, char searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfFloatType(float[] searchIn, float searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfDoubleType(double[] searchIn, double searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfBoolType(boolean[] searchIn, boolean searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfInteger(Integer[] searchIn, Integer searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfLong(Long[] searchIn, Long searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfByte(Byte[] searchIn, Byte searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfShort(Short[] searchIn, Short searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfChar(Character[] searchIn, Character searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfFloat(Float[] searchIn, Float searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfDouble(Double[] searchIn, Double searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfBool(Boolean[] searchIn, Boolean searchFor)</t>
+  </si>
+  <si>
+    <t>Method double testCosh(double x)</t>
+  </si>
+  <si>
+    <t>return cosh(x);</t>
+  </si>
+  <si>
+    <t>Method double testExp(double x)</t>
+  </si>
+  <si>
+    <t>return exp(x);</t>
+  </si>
+  <si>
+    <t>Method double testExpm1(double x)</t>
+  </si>
+  <si>
+    <t>Method Short testShortMax(Short x, Short y)</t>
+  </si>
+  <si>
+    <t>Method Byte testByteMax(Byte x, Byte y)</t>
+  </si>
+  <si>
+    <t>Method Short testShortMin(Short x, Short y)</t>
+  </si>
+  <si>
+    <t>Method Byte testByteMin(Byte x, Byte y)</t>
+  </si>
+  <si>
+    <t>Method Byte[] testByteAdd(Byte[] inArr, Byte el)</t>
+  </si>
+  <si>
+    <t>Method Byte[] testByteAdd(Byte[] inArr, int pos, Byte el)</t>
+  </si>
+  <si>
+    <t>Method  Short[] testShortAdd(Short[] inArr, int pos, Short el)</t>
+  </si>
+  <si>
+    <t>Method Short[] testShortAdd(Short[] inArr, Short el)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testIntegerAdd(Integer[] inArr, Integer el)</t>
+  </si>
+  <si>
+    <t>Method  Integer[] testIntegerAdd(Integer[] inArr, int pos, Integer el)</t>
+  </si>
+  <si>
+    <t>Method Long[] testLongAdd(Long[] inArr, Long el)</t>
+  </si>
+  <si>
+    <t>Method  Long[] testLongAdd(Long[] inArr, int pos, Long el)</t>
+  </si>
+  <si>
+    <t>Method Float[] testFloatAdd(Float[] inArr, Float el)</t>
+  </si>
+  <si>
+    <t>Method  Float[] testFloatAdd(Float[] inArr, int pos, Float el)</t>
+  </si>
+  <si>
+    <t>Method Double[] testDoubleAdd(Double[] inArr, Double el)</t>
+  </si>
+  <si>
+    <t>Method  Double[] testDoubleAdd(Double[] inArr, int pos, Double el)</t>
+  </si>
+  <si>
+    <t>Method Boolean[] testBooleanAdd(Boolean[] inArr, Boolean el)</t>
+  </si>
+  <si>
+    <t>Method  Boolean[] testBooleanAdd(Boolean[] inArr, int pos, Boolean el)</t>
+  </si>
+  <si>
+    <t>Method Character[] testCharAdd(Character[] inArr, Character el)</t>
+  </si>
+  <si>
+    <t>Method  Character[] testCharAdd(Character[] inArr, int pos, Character el)</t>
+  </si>
+  <si>
+    <t>Method Object[] testObjectAddIgnoreNulls(Object[] inArr, Object el)</t>
+  </si>
+  <si>
+    <t>return addArrayElementIgnoreNull(inArr, el);</t>
+  </si>
+  <si>
+    <t>Method Object[] testObjectAddIgnoreNulls(Object[] inArr, int pos, Object el)</t>
+  </si>
+  <si>
+    <t>return addArrayElementIgnoreNull(inArr, pos, el);</t>
+  </si>
+  <si>
+    <t>Method Byte[] testByteAddAll(Byte[] inArr1, Byte[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Double[] testDoubleAddAll(Double[] inArr1, Double[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Float[] testFloatAddAll(Float[] inArr1, Float[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testIntegerAddAll(Integer[] inArr1, Integer[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Long[] testLongAddAll(Long[] inArr1, Long[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Short[] testShortAddAll(Short[] inArr1, Short[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Boolean[] testBooleanAddAll(Boolean[] inArr1, Boolean[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Character[] testCharAddAll(Character[] inArr1, Character[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Boolean[] testBooleanRemoveElement(Boolean[] inArr, Boolean el)</t>
+  </si>
+  <si>
+    <t>Method Byte[] testByteRemoveElement(Byte[] inArr, Byte el)</t>
+  </si>
+  <si>
+    <t>Method Character[] testCharRemoveElement(Character[] inArr, Character el)</t>
+  </si>
+  <si>
+    <t>Method Double[] testDoubleRemoveElement(Double[] inArr, Double el)</t>
+  </si>
+  <si>
+    <t>Method Float[] testFloatRemoveElement(Float[] inArr, Float el)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testIntegerRemoveElement(Integer[] inArr, Integer el)</t>
+  </si>
+  <si>
+    <t>Method Long[] testLongRemoveElement(Long[] inArr, Long el)</t>
+  </si>
+  <si>
+    <t>Method Short[] testShortRemoveElement(Short[] inArr, Short el)</t>
+  </si>
+  <si>
+    <t>Method Boolean[] testBooleanRemove(Boolean[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Byte[] testByteRemove(Byte[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Character[] testCharRemove(Character[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Double[] testDoubleRemove(Double[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Float[] testFloatRemove(Float[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testIntegerRemove(Integer[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Long[] testLongRemove(Long[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Short[] testShortRemove(Short[] inArr,int pos)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1612,8 +1893,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1680,12 +1968,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1727,52 +2009,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="9" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="12" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="11" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="10" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="2"/>
+    <cellStyle name="20% — акцент5" xfId="2" builtinId="46"/>
+    <cellStyle name="40% — акцент1" xfId="1" builtinId="31"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1845,19 +2127,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1890,9 +2175,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1927,7 +2212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1962,7 +2247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2015,7 +2300,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2024,13 +2309,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2040,7 +2325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2049,7 +2334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2058,7 +2343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2068,12 +2353,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2104,7 +2389,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2123,7 +2408,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2135,25 +2420,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK114"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="19.5703125" collapsed="true"/>
-    <col min="4" max="4" width="38.42578125" collapsed="true"/>
-    <col min="5" max="5" width="9.5703125" collapsed="true"/>
-    <col min="6" max="6" width="28.85546875" collapsed="true"/>
-    <col min="7" max="7" width="38.42578125" collapsed="true"/>
-    <col min="8" max="8" width="9.5703125" collapsed="true"/>
-    <col min="9" max="9" width="72.85546875" collapsed="true"/>
-    <col min="10" max="10" width="27.28515625" collapsed="true"/>
-    <col min="11" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" collapsed="1"/>
+    <col min="4" max="4" width="38.42578125" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" collapsed="1"/>
+    <col min="6" max="6" width="28.85546875" collapsed="1"/>
+    <col min="7" max="7" width="38.42578125" collapsed="1"/>
+    <col min="8" max="8" width="9.5703125" collapsed="1"/>
+    <col min="9" max="9" width="72.85546875" collapsed="1"/>
+    <col min="10" max="10" width="27.28515625" collapsed="1"/>
+    <col min="11" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2467,7 +2752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
         <v>-2147483648</v>
       </c>
@@ -2481,21 +2766,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F30" s="5">
         <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="18"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2506,8 +2799,11 @@
         <v>35</v>
       </c>
       <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
@@ -2518,8 +2814,11 @@
       <c r="G34" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2529,7 +2828,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
         <v>10</v>
       </c>
@@ -2541,7 +2840,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="5">
         <v>2147483647</v>
       </c>
@@ -2555,7 +2854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="5">
         <v>-2147483648</v>
       </c>
@@ -2569,7 +2868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F39" s="5">
         <v>0</v>
       </c>
@@ -2577,13 +2876,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="18"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -2595,7 +2894,7 @@
       </c>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>40</v>
       </c>
@@ -2617,7 +2916,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
         <v>10</v>
       </c>
@@ -2629,7 +2928,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="5">
         <v>-128</v>
       </c>
@@ -2643,7 +2942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C47" s="5">
         <v>127</v>
       </c>
@@ -2657,7 +2956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F48" s="6" t="s">
         <v>17</v>
       </c>
@@ -3056,7 +3355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="5">
         <v>-2147483648</v>
       </c>
@@ -3070,21 +3369,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F87" s="5">
         <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I87" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I88" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C89" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D89" s="18"/>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3402,11 @@
         <v>64</v>
       </c>
       <c r="G90" s="18"/>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I90" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>50</v>
       </c>
@@ -3107,8 +3417,11 @@
       <c r="G91" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I91" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>36</v>
       </c>
@@ -3372,31 +3685,31 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C14:D14"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="78.7109375" collapsed="true"/>
-    <col min="4" max="4" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" width="78.7109375" collapsed="true"/>
-    <col min="6" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="78.7109375" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="78.7109375" collapsed="1"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -3404,133 +3717,154 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
+        <v>192</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" width="62.42578125" collapsed="true"/>
-    <col min="5" max="5" width="9.5703125" collapsed="true"/>
-    <col min="6" max="6" width="62.42578125" collapsed="true"/>
-    <col min="7" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="2" width="1.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" collapsed="1"/>
+    <col min="4" max="4" width="62.42578125" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" collapsed="1"/>
+    <col min="6" max="6" width="80.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -3538,183 +3872,198 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
+        <v>205</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:AMK8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="38.85546875" collapsed="true"/>
-    <col min="4" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="38.85546875" collapsed="1"/>
+    <col min="4" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMK126"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" width="82.42578125" collapsed="true"/>
-    <col min="3" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" collapsed="1"/>
+    <col min="2" max="2" width="82.42578125" collapsed="1"/>
+    <col min="3" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -3722,12 +4071,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -3735,12 +4084,12 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
@@ -3748,12 +4097,12 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
@@ -3761,12 +4110,12 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
@@ -3774,12 +4123,12 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
@@ -3787,12 +4136,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
@@ -3800,12 +4149,12 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
@@ -3813,12 +4162,12 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
@@ -3826,12 +4175,12 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
@@ -3839,12 +4188,12 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3852,12 +4201,12 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
@@ -3865,12 +4214,12 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
@@ -3878,12 +4227,12 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
@@ -3891,12 +4240,12 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
@@ -3904,12 +4253,12 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -3917,12 +4266,12 @@
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
@@ -3930,12 +4279,12 @@
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
@@ -3943,12 +4292,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -3956,12 +4305,12 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
@@ -3969,12 +4318,12 @@
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
@@ -3982,12 +4331,12 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
@@ -3995,213 +4344,243 @@
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="9" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>318</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="10" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMK24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" collapsed="true"/>
-    <col min="2" max="2" width="45.85546875" collapsed="true"/>
-    <col min="3" max="3" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" width="39.0" collapsed="true"/>
-    <col min="5" max="1025" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="10.28515625" collapsed="1"/>
+    <col min="2" max="2" width="45.85546875" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" collapsed="1"/>
+    <col min="4" max="4" width="39" collapsed="1"/>
+    <col min="5" max="1025" width="10.28515625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="9" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -4211,20 +4590,20 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="9" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -4234,20 +4613,20 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="9" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -4257,20 +4636,20 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="9" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -4280,20 +4659,20 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="9" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -4303,20 +4682,20 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="9" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -4327,13 +4706,13 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="12"/>
       <c r="D20" s="9" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12"/>
       <c r="D21" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -4343,18 +4722,18 @@
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
       <c r="D23" s="9" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="12"/>
       <c r="D24" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4363,33 +4742,33 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:ALX4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="49.28515625" collapsed="true"/>
-    <col min="3" max="1012" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="49.28515625" collapsed="1"/>
+    <col min="3" max="1012" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4398,113 +4777,113 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AMK28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="51.28515625" collapsed="true"/>
-    <col min="3" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="51.28515625" collapsed="1"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4513,185 +4892,217 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AMK37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="50.28515625" collapsed="true"/>
-    <col min="3" max="3" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" width="56.42578125" collapsed="true"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="50.28515625" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="56.42578125" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4700,209 +5111,333 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMK60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" width="68.0" collapsed="true"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="68" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>380</v>
+        <v>347</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>373</v>
+        <v>340</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="10" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4911,113 +5446,163 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMK27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="56.42578125" collapsed="true"/>
-    <col min="3" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="56.42578125" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="71.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5026,24 +5611,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="72.85546875" collapsed="true"/>
-    <col min="4" max="4" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" width="72.85546875" collapsed="true"/>
-    <col min="6" max="6" width="9.5703125" collapsed="true"/>
-    <col min="7" max="7" width="19.5703125" collapsed="true"/>
-    <col min="8" max="8" width="38.42578125" collapsed="true"/>
-    <col min="9" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="72.85546875" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="72.85546875" collapsed="1"/>
+    <col min="6" max="6" width="9.5703125" collapsed="1"/>
+    <col min="7" max="7" width="19.5703125" collapsed="1"/>
+    <col min="8" max="8" width="38.42578125" collapsed="1"/>
+    <col min="9" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5246,175 +5831,303 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMK52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="53.42578125" collapsed="true"/>
-    <col min="3" max="3" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" width="57.5703125" collapsed="true"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="53.42578125" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="75.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5423,133 +6136,133 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMK33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="62.28515625" collapsed="true"/>
-    <col min="3" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="62.28515625" collapsed="1"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5558,123 +6271,123 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="78.85546875" collapsed="true"/>
-    <col min="3" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="78.85546875" collapsed="1"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5683,249 +6396,249 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMK42"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="50.0" collapsed="true"/>
-    <col min="3" max="3" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" width="65.42578125" collapsed="true"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="50" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="65.42578125" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5934,8 +6647,8 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -5943,27 +6656,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -5971,48 +6684,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="53.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
@@ -6037,35 +6750,180 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
+    <col min="4" max="4" width="67.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
+      <c r="D14" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="72.85546875" collapsed="true"/>
-    <col min="4" max="4" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" width="72.85546875" collapsed="true"/>
-    <col min="6" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="72.85546875" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="72.85546875" collapsed="1"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6312,27 +7170,27 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="72.85546875" collapsed="true"/>
-    <col min="4" max="4" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" width="72.85546875" collapsed="true"/>
-    <col min="6" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="72.85546875" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="72.85546875" collapsed="1"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6567,27 +7425,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK57"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="82.42578125" collapsed="true"/>
-    <col min="4" max="4" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" width="93.28515625" collapsed="true"/>
-    <col min="6" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="82.42578125" collapsed="1"/>
+    <col min="4" max="4" width="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="82.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5703125" collapsed="1"/>
+    <col min="7" max="7" width="69.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6616,10 +7476,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>503</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>156</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6632,10 +7492,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>157</v>
+        <v>502</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>158</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6648,10 +7508,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>159</v>
+        <v>501</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6664,10 +7524,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>161</v>
+        <v>512</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>162</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6680,10 +7540,10 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>163</v>
+        <v>500</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>164</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -6696,10 +7556,10 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>165</v>
+        <v>499</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>166</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
@@ -6712,10 +7572,10 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>167</v>
+        <v>498</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>168</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
@@ -6728,10 +7588,10 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>169</v>
+        <v>497</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>170</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
@@ -6742,32 +7602,182 @@
         <v>154</v>
       </c>
     </row>
+    <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="82.42578125" collapsed="true"/>
-    <col min="4" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="82.42578125" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="66.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>124</v>
       </c>
@@ -6775,206 +7785,263 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
+        <v>156</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AMK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" width="82.42578125" collapsed="true"/>
-    <col min="3" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" collapsed="1"/>
+    <col min="2" max="2" width="82.42578125" collapsed="1"/>
+    <col min="3" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AMK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" width="82.42578125" collapsed="true"/>
-    <col min="3" max="3" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" width="82.42578125" collapsed="true"/>
-    <col min="5" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" collapsed="1"/>
+    <col min="2" max="2" width="82.42578125" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" collapsed="1"/>
+    <col min="4" max="4" width="82.42578125" collapsed="1"/>
+    <col min="5" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row ht="16.5" r="5" spans="2:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row ht="16.5" r="6" spans="2:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row ht="16.5" r="7" spans="2:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="8" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" width="72.85546875" collapsed="true"/>
-    <col min="3" max="3" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" width="72.85546875" collapsed="true"/>
-    <col min="5" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" collapsed="1"/>
+    <col min="2" max="2" width="72.85546875" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" collapsed="1"/>
+    <col min="4" max="4" width="72.85546875" collapsed="1"/>
+    <col min="5" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -6982,185 +8049,185 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvlad\Documents\EIS\OpenL\openl-pub\DEV\org.openl.rules\test\rules\helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\test\rules\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1D75D13-D9C7-49E1-8AB2-C9E8443B4E5B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="891" firstSheet="7" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="891" firstSheet="8" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxMinTests" sheetId="1" r:id="rId1"/>
@@ -1510,9 +1511,6 @@
     <t>Method Double testMedianDouble(Double[] values)</t>
   </si>
   <si>
-    <t>Method BigInteger testMedianBigInteger(BigInteger[] values)</t>
-  </si>
-  <si>
     <t>Method BigDecimal testMedianBigDecimal(BigDecimal[] values)</t>
   </si>
   <si>
@@ -1841,12 +1839,15 @@
   </si>
   <si>
     <t>Method Short[] testShortRemove(Short[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal testMedianBigInteger(BigInteger[] values)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2038,13 +2039,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2210,6 +2211,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2245,6 +2263,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2420,7 +2455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK114"/>
   <sheetViews>
     <sheetView topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
@@ -2442,12 +2477,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="17" t="s">
@@ -2459,10 +2494,10 @@
       <c r="G3" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2471,10 +2506,10 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="16"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2567,10 +2602,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -2579,10 +2614,10 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="16"/>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2675,10 +2710,10 @@
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -2687,10 +2722,10 @@
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="16"/>
       <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2783,10 +2818,10 @@
       </c>
     </row>
     <row r="32" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
@@ -2795,10 +2830,10 @@
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="16"/>
       <c r="I33" s="2" t="s">
         <v>477</v>
       </c>
@@ -2877,10 +2912,10 @@
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
@@ -2889,10 +2924,10 @@
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
@@ -2965,10 +3000,10 @@
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="18"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
@@ -2977,10 +3012,10 @@
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="18"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -3062,10 +3097,10 @@
       <c r="G60" s="17"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="18"/>
+      <c r="D62" s="16"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
@@ -3074,10 +3109,10 @@
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="18"/>
+      <c r="G63" s="16"/>
       <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
@@ -3170,10 +3205,10 @@
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="18"/>
+      <c r="D71" s="16"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
@@ -3182,10 +3217,10 @@
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="18"/>
+      <c r="G72" s="16"/>
       <c r="I72" s="2" t="s">
         <v>56</v>
       </c>
@@ -3278,10 +3313,10 @@
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="18"/>
+      <c r="D80" s="16"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
@@ -3290,10 +3325,10 @@
       <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="18"/>
+      <c r="G81" s="16"/>
       <c r="I81" s="2" t="s">
         <v>61</v>
       </c>
@@ -3386,10 +3421,10 @@
       </c>
     </row>
     <row r="89" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="18"/>
+      <c r="D89" s="16"/>
     </row>
     <row r="90" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
@@ -3398,10 +3433,10 @@
       <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="18" t="s">
+      <c r="F90" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="18"/>
+      <c r="G90" s="16"/>
       <c r="I90" s="2" t="s">
         <v>475</v>
       </c>
@@ -3480,10 +3515,10 @@
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="18"/>
+      <c r="D98" s="16"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
@@ -3492,10 +3527,10 @@
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="18" t="s">
+      <c r="F99" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G99" s="18"/>
+      <c r="G99" s="16"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
@@ -3568,10 +3603,10 @@
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="18"/>
+      <c r="D107" s="16"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
@@ -3580,10 +3615,10 @@
       <c r="D108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="18" t="s">
+      <c r="F108" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="18"/>
+      <c r="G108" s="16"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
@@ -3657,6 +3692,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C80:D80"/>
     <mergeCell ref="C107:D107"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="F81:G81"/>
@@ -3664,26 +3719,6 @@
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F99:G99"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3691,7 +3726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
@@ -3708,12 +3743,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
@@ -3845,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
@@ -3863,12 +3898,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
@@ -4011,7 +4046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A7:AMK8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4042,7 +4077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:AMK126"/>
   <sheetViews>
     <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
@@ -4514,32 +4549,32 @@
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -4549,7 +4584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A2:AMK24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4742,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A3:ALX4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4777,7 +4812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A3:AMK28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4892,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A3:AMK37"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -5070,10 +5105,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -5086,10 +5121,10 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -5111,7 +5146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A2:AMK60"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
@@ -5196,7 +5231,7 @@
         <v>347</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -5212,7 +5247,7 @@
         <v>348</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -5228,7 +5263,7 @@
         <v>349</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -5244,7 +5279,7 @@
         <v>350</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -5260,7 +5295,7 @@
         <v>351</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -5276,7 +5311,7 @@
         <v>352</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -5292,7 +5327,7 @@
         <v>353</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -5308,7 +5343,7 @@
         <v>354</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -5324,7 +5359,7 @@
         <v>355</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -5340,7 +5375,7 @@
         <v>356</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -5356,7 +5391,7 @@
         <v>357</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -5372,7 +5407,7 @@
         <v>358</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
@@ -5385,15 +5420,15 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>337</v>
@@ -5401,15 +5436,15 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>340</v>
@@ -5417,7 +5452,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -5427,7 +5462,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D59" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -5446,7 +5481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A2:AMK27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5467,7 +5502,7 @@
         <v>359</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -5483,7 +5518,7 @@
         <v>361</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -5499,7 +5534,7 @@
         <v>362</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -5515,7 +5550,7 @@
         <v>363</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -5531,7 +5566,7 @@
         <v>364</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -5547,7 +5582,7 @@
         <v>365</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -5563,7 +5598,7 @@
         <v>366</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -5579,7 +5614,7 @@
         <v>367</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -5611,7 +5646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
@@ -5632,12 +5667,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -5837,11 +5872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A2:AMK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5999,10 +6034,10 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -6015,10 +6050,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -6031,10 +6066,10 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -6047,10 +6082,10 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -6063,10 +6098,10 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -6079,10 +6114,10 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -6095,10 +6130,10 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -6111,10 +6146,10 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -6136,7 +6171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A2:AMK33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6271,7 +6306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A2:AMK30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6396,7 +6431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A2:AMK42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6647,7 +6682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6675,7 +6710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6764,11 +6799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6784,7 +6819,7 @@
         <v>482</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6801,7 +6836,7 @@
         <v>484</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6818,7 +6853,7 @@
         <v>485</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6835,7 +6870,7 @@
         <v>486</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6849,10 +6884,10 @@
     <row r="13" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6869,7 +6904,7 @@
         <v>487</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6883,7 +6918,7 @@
     <row r="19" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>488</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6894,7 +6929,7 @@
     <row r="22" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6909,7 +6944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK50"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
@@ -6927,12 +6962,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -7176,7 +7211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7194,12 +7229,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -7431,7 +7466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK57"/>
   <sheetViews>
     <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
@@ -7451,12 +7486,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -7476,10 +7511,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7492,10 +7527,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7508,10 +7543,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7524,10 +7559,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7540,10 +7575,10 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -7556,10 +7591,10 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
@@ -7572,10 +7607,10 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
@@ -7588,10 +7623,10 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
@@ -7605,10 +7640,10 @@
     <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7622,10 +7657,10 @@
     <row r="33" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7639,10 +7674,10 @@
     <row r="36" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7656,10 +7691,10 @@
     <row r="39" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7673,10 +7708,10 @@
     <row r="42" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7690,10 +7725,10 @@
     <row r="45" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7707,10 +7742,10 @@
     <row r="48" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7724,10 +7759,10 @@
     <row r="51" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7741,7 +7776,7 @@
     <row r="54" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7760,7 +7795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
@@ -7778,12 +7813,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
@@ -7798,10 +7833,10 @@
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7815,10 +7850,10 @@
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7832,10 +7867,10 @@
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7849,10 +7884,10 @@
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7866,10 +7901,10 @@
     <row r="17" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7883,10 +7918,10 @@
     <row r="20" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7900,10 +7935,10 @@
     <row r="23" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7917,10 +7952,10 @@
     <row r="26" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7942,7 +7977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7973,7 +8008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:AMK7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8023,7 +8058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMK37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8040,12 +8075,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -1,44 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\test\rules\helpers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1D75D13-D9C7-49E1-8AB2-C9E8443B4E5B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="7" windowHeight="8130" windowWidth="16380" xWindow="0" yWindow="60"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="891" firstSheet="8" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MaxMinTests" r:id="rId1" sheetId="1"/>
-    <sheet name="Mod" r:id="rId2" sheetId="2"/>
-    <sheet name="Slice" r:id="rId3" sheetId="3"/>
-    <sheet name="Sort" r:id="rId4" sheetId="4"/>
-    <sheet name="Contains" r:id="rId5" sheetId="5"/>
-    <sheet name="IndexOf" r:id="rId6" sheetId="6"/>
-    <sheet name="noNulls" r:id="rId7" sheetId="7"/>
-    <sheet name="error and format" r:id="rId8" sheetId="8"/>
-    <sheet name="Quotient" r:id="rId9" sheetId="9"/>
-    <sheet name="Sum" r:id="rId10" sheetId="10"/>
-    <sheet name="Avg" r:id="rId11" sheetId="11"/>
-    <sheet name="logical functions" r:id="rId12" sheetId="12"/>
-    <sheet name="Differents" r:id="rId13" sheetId="13"/>
-    <sheet name="Product" r:id="rId14" sheetId="14"/>
-    <sheet name="Logical" r:id="rId15" sheetId="15"/>
-    <sheet name="Round" r:id="rId16" sheetId="16"/>
-    <sheet name="MaxMinTests2" r:id="rId17" sheetId="17"/>
-    <sheet name="Add" r:id="rId18" sheetId="18"/>
-    <sheet name="AddAll" r:id="rId19" sheetId="19"/>
-    <sheet name="Remove" r:id="rId20" sheetId="20"/>
-    <sheet name="Empty" r:id="rId21" sheetId="21"/>
-    <sheet name="Sheet22" r:id="rId22" sheetId="22"/>
-    <sheet name="small and big" r:id="rId23" sheetId="23"/>
-    <sheet name="arrays" r:id="rId24" sheetId="24"/>
-    <sheet name="alliases" r:id="rId25" sheetId="25"/>
+    <sheet name="MaxMinTests" sheetId="1" r:id="rId1"/>
+    <sheet name="Mod" sheetId="2" r:id="rId2"/>
+    <sheet name="Slice" sheetId="3" r:id="rId3"/>
+    <sheet name="Sort" sheetId="4" r:id="rId4"/>
+    <sheet name="Contains" sheetId="5" r:id="rId5"/>
+    <sheet name="IndexOf" sheetId="6" r:id="rId6"/>
+    <sheet name="noNulls" sheetId="7" r:id="rId7"/>
+    <sheet name="error and format" sheetId="8" r:id="rId8"/>
+    <sheet name="Quotient" sheetId="9" r:id="rId9"/>
+    <sheet name="Sum" sheetId="10" r:id="rId10"/>
+    <sheet name="Avg" sheetId="11" r:id="rId11"/>
+    <sheet name="logical functions" sheetId="12" r:id="rId12"/>
+    <sheet name="Differents" sheetId="13" r:id="rId13"/>
+    <sheet name="Product" sheetId="14" r:id="rId14"/>
+    <sheet name="Logical" sheetId="15" r:id="rId15"/>
+    <sheet name="Round" sheetId="16" r:id="rId16"/>
+    <sheet name="MaxMinTests2" sheetId="17" r:id="rId17"/>
+    <sheet name="Add" sheetId="18" r:id="rId18"/>
+    <sheet name="AddAll" sheetId="19" r:id="rId19"/>
+    <sheet name="Remove" sheetId="20" r:id="rId20"/>
+    <sheet name="Empty" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="small and big" sheetId="23" r:id="rId23"/>
+    <sheet name="arrays" sheetId="24" r:id="rId24"/>
+    <sheet name="alliases" sheetId="25" r:id="rId25"/>
+    <sheet name="median" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="599">
   <si>
     <t>Tests to test rules helper methods for Max and Min value of different types</t>
   </si>
@@ -505,84 +512,12 @@
     <t>return contains(searchIn, searchFor);</t>
   </si>
   <si>
-    <t>Method boolean testContainsIntegerInIntegerArr(int[] searchIn, int searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsIntegerArrInIntegerArr(int[] searchIn, int[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsLongInLongArr(long[] searchIn, long searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsLongArrInLongArr(long[] searchIn, long[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsByteInByteArr(byte[] searchIn, byte searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsByteArrInByteArr(byte[] searchIn, byte[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsShortInShortArr(short[] searchIn, short searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsShortArrInShortArr(short[] searchIn, short[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsCharInCharArr(char[] searchIn, char searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsFloatArrInFloatArr(float[] searchIn, float[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsFloatInFloatArr(float[] searchIn, float searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsDoubleArrInDoubleArr(double[] searchIn, double[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsDoubleInDoubleArr(double[] searchIn, double searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsBoolArrInBoolArr(boolean[] searchIn, boolean[] searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsBoolInBoolArr(boolean[] searchIn, boolean searchFor)</t>
-  </si>
-  <si>
-    <t>Method boolean testContainsCharArrInCharArr(char[] searchIn, char[] searchFor)</t>
-  </si>
-  <si>
     <t>Method int testIndexOfObject(Object[] searchIn, Object searchFor)</t>
   </si>
   <si>
     <t>return indexOf(searchIn, searchFor);</t>
   </si>
   <si>
-    <t>Method int testIndexOfInteger(int[] searchIn, int searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfLong(long[] searchIn, long searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfByte(byte[] searchIn, byte searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfShort(short[] searchIn, short searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfChar(char[] searchIn, char searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfFloat(float[] searchIn, float searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfDouble(double[] searchIn, double searchFor)</t>
-  </si>
-  <si>
-    <t>Method int testIndexOfBool(boolean[] searchIn, boolean searchFor)</t>
-  </si>
-  <si>
     <t>Method boolean testNoNullsObject(Object[] searchIn)</t>
   </si>
   <si>
@@ -727,39 +662,12 @@
     <t>Method BigDecimalValue testAvgBigDecimal(BigDecimalValue[] values)</t>
   </si>
   <si>
-    <t>Method java.lang.Byte testAvgByte(java.lang.Byte[] values)</t>
-  </si>
-  <si>
     <t>return avg(values);</t>
   </si>
   <si>
-    <t>Method BigIntegerValue testAvgBigInteger(BigIntegerValue[] values)</t>
-  </si>
-  <si>
-    <t>Method java.lang.Short testAvgShort(java.lang.Short[] values)</t>
-  </si>
-  <si>
-    <t>Method byte testAvgByteType(byte[] values)</t>
-  </si>
-  <si>
-    <t>Method java.lang.Integer testAvgInteger(java.lang.Integer[] values)</t>
-  </si>
-  <si>
-    <t>Method short testAvgShortType(short[] values)</t>
-  </si>
-  <si>
-    <t>Method java.lang.Long testAvgLong(java.lang.Long[] values)</t>
-  </si>
-  <si>
-    <t>Method int testAvgIntegerType(int[] values)</t>
-  </si>
-  <si>
     <t>Method java.lang.Float testAvgFloat(java.lang.Float[] values)</t>
   </si>
   <si>
-    <t>Method long testAvgLongType(long[] values)</t>
-  </si>
-  <si>
     <t>Method java.lang.Double testAvgDouble(java.lang.Double[] values)</t>
   </si>
   <si>
@@ -1559,14 +1467,388 @@
   </si>
   <si>
     <t>Method java.lang.Double testAvgShort(java.lang.Short[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMaxDouble(Double[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMaxDoubleType(double[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMinDouble(Double[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMinDoubleType(double[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testSumDouble(Double[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testSumDoubleType(double[] values)</t>
+  </si>
+  <si>
+    <t>Method java.math.BigDecimal testAvgBigDecimalArray(java.math.BigDecimal[] values)</t>
+  </si>
+  <si>
+    <t>Method java.math.BigDecimal testAvgBigIntegerArray(java.math.BigInteger[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianByte(Byte[] values)</t>
+  </si>
+  <si>
+    <t>return median(values);</t>
+  </si>
+  <si>
+    <t>Method Double testMedianShort(Short[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianInteger(Integer[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianLong(Long[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianDouble(Double[] values)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal testMedianBigDecimal(BigDecimal[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianByteType(byte[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianShortType(short[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianIntegerType(int[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianLongType(long[] values)</t>
+  </si>
+  <si>
+    <t>Method Float testMedianFloatType(float[] values)</t>
+  </si>
+  <si>
+    <t>Method Float testMedianFloat(Float[] values)</t>
+  </si>
+  <si>
+    <t>Method Double testMedianDoubleType(double[] values)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsBoolTypeInBoolArr(boolean[] searchIn, boolean searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleTypeInDoubleArr(double[] searchIn, double searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsFloatTypeInFloatArr(float[] searchIn, float searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharTypeInCharArr(char[] searchIn, char searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsByteTypeInByteArr(byte[] searchIn, byte searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsLongTypeInLongArr(long[] searchIn, long searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerTypeInIntegerArr(int[] searchIn, int searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerInIntegerArr(Integer[] searchIn, Integer searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsByteInByteArr(Byte[] searchIn, Byte searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsShortInShortArr(Short[] searchIn, Short searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharInCharArr(Character[] searchIn, Character searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsFloatInFloatArr(Float[] searchIn, Float searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleInDoubleArr(Double[] searchIn, Double searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsBoolInBoolArr(Boolean[] searchIn, Boolean searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsLongInLongArr(Long[] searchIn,Long searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsShortTypeInShortArr(short[] searchIn, short searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerTypeArrInIntegerArr(int[] searchIn, int[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsLongTypeArrInLongArr(long[] searchIn, long[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsByteTypeArrInByteArr(byte[] searchIn, byte[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsShortTypeArrInShortArr(short[] searchIn, short[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsFloatTypeArrInFloatArr(float[] searchIn, float[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleTypeArrInDoubleArr(double[] searchIn, double[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsBoolTypeArrInBoolArr(boolean[] searchIn, boolean[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharTypeArrInCharArr(char[] searchIn, char[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerArrInIntegerArr(Integer[] searchIn, Integer[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsLongArrInLongArr(Long[] searchIn, Long[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsByteArrInByteArr(Byte[] searchIn, Byte[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsShortArrInShortArr(Short[] searchIn, Short[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsFloatArrInFloatArr(Float[] searchIn, Float[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleArrInDoubleArr(Double[] searchIn, Double[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsBoolArrInBoolArr(Boolean[] searchIn, Boolean[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharArrInCharArr(Character[] searchIn, Character[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsStringArrInStringArr(String[] searchIn, String[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfIntegerType(int[] searchIn, int searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfLongType(long[] searchIn, long searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfByteType(byte[] searchIn, byte searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfShortType(short[] searchIn, short searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfCharType(char[] searchIn, char searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfFloatType(float[] searchIn, float searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfDoubleType(double[] searchIn, double searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfBoolType(boolean[] searchIn, boolean searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfInteger(Integer[] searchIn, Integer searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfLong(Long[] searchIn, Long searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfByte(Byte[] searchIn, Byte searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfShort(Short[] searchIn, Short searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfChar(Character[] searchIn, Character searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfFloat(Float[] searchIn, Float searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfDouble(Double[] searchIn, Double searchFor)</t>
+  </si>
+  <si>
+    <t>Method int testIndexOfBool(Boolean[] searchIn, Boolean searchFor)</t>
+  </si>
+  <si>
+    <t>Method double testCosh(double x)</t>
+  </si>
+  <si>
+    <t>return cosh(x);</t>
+  </si>
+  <si>
+    <t>Method double testExp(double x)</t>
+  </si>
+  <si>
+    <t>return exp(x);</t>
+  </si>
+  <si>
+    <t>Method double testExpm1(double x)</t>
+  </si>
+  <si>
+    <t>Method Short testShortMax(Short x, Short y)</t>
+  </si>
+  <si>
+    <t>Method Byte testByteMax(Byte x, Byte y)</t>
+  </si>
+  <si>
+    <t>Method Short testShortMin(Short x, Short y)</t>
+  </si>
+  <si>
+    <t>Method Byte testByteMin(Byte x, Byte y)</t>
+  </si>
+  <si>
+    <t>Method Byte[] testByteAdd(Byte[] inArr, Byte el)</t>
+  </si>
+  <si>
+    <t>Method Byte[] testByteAdd(Byte[] inArr, int pos, Byte el)</t>
+  </si>
+  <si>
+    <t>Method  Short[] testShortAdd(Short[] inArr, int pos, Short el)</t>
+  </si>
+  <si>
+    <t>Method Short[] testShortAdd(Short[] inArr, Short el)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testIntegerAdd(Integer[] inArr, Integer el)</t>
+  </si>
+  <si>
+    <t>Method  Integer[] testIntegerAdd(Integer[] inArr, int pos, Integer el)</t>
+  </si>
+  <si>
+    <t>Method Long[] testLongAdd(Long[] inArr, Long el)</t>
+  </si>
+  <si>
+    <t>Method  Long[] testLongAdd(Long[] inArr, int pos, Long el)</t>
+  </si>
+  <si>
+    <t>Method Float[] testFloatAdd(Float[] inArr, Float el)</t>
+  </si>
+  <si>
+    <t>Method  Float[] testFloatAdd(Float[] inArr, int pos, Float el)</t>
+  </si>
+  <si>
+    <t>Method Double[] testDoubleAdd(Double[] inArr, Double el)</t>
+  </si>
+  <si>
+    <t>Method  Double[] testDoubleAdd(Double[] inArr, int pos, Double el)</t>
+  </si>
+  <si>
+    <t>Method Boolean[] testBooleanAdd(Boolean[] inArr, Boolean el)</t>
+  </si>
+  <si>
+    <t>Method  Boolean[] testBooleanAdd(Boolean[] inArr, int pos, Boolean el)</t>
+  </si>
+  <si>
+    <t>Method Character[] testCharAdd(Character[] inArr, Character el)</t>
+  </si>
+  <si>
+    <t>Method  Character[] testCharAdd(Character[] inArr, int pos, Character el)</t>
+  </si>
+  <si>
+    <t>Method Object[] testObjectAddIgnoreNulls(Object[] inArr, Object el)</t>
+  </si>
+  <si>
+    <t>return addArrayElementIgnoreNull(inArr, el);</t>
+  </si>
+  <si>
+    <t>Method Object[] testObjectAddIgnoreNulls(Object[] inArr, int pos, Object el)</t>
+  </si>
+  <si>
+    <t>return addArrayElementIgnoreNull(inArr, pos, el);</t>
+  </si>
+  <si>
+    <t>Method Byte[] testByteAddAll(Byte[] inArr1, Byte[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Double[] testDoubleAddAll(Double[] inArr1, Double[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Float[] testFloatAddAll(Float[] inArr1, Float[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testIntegerAddAll(Integer[] inArr1, Integer[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Long[] testLongAddAll(Long[] inArr1, Long[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Short[] testShortAddAll(Short[] inArr1, Short[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Boolean[] testBooleanAddAll(Boolean[] inArr1, Boolean[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Character[] testCharAddAll(Character[] inArr1, Character[] inArr2)</t>
+  </si>
+  <si>
+    <t>Method Boolean[] testBooleanRemoveElement(Boolean[] inArr, Boolean el)</t>
+  </si>
+  <si>
+    <t>Method Byte[] testByteRemoveElement(Byte[] inArr, Byte el)</t>
+  </si>
+  <si>
+    <t>Method Character[] testCharRemoveElement(Character[] inArr, Character el)</t>
+  </si>
+  <si>
+    <t>Method Double[] testDoubleRemoveElement(Double[] inArr, Double el)</t>
+  </si>
+  <si>
+    <t>Method Float[] testFloatRemoveElement(Float[] inArr, Float el)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testIntegerRemoveElement(Integer[] inArr, Integer el)</t>
+  </si>
+  <si>
+    <t>Method Long[] testLongRemoveElement(Long[] inArr, Long el)</t>
+  </si>
+  <si>
+    <t>Method Short[] testShortRemoveElement(Short[] inArr, Short el)</t>
+  </si>
+  <si>
+    <t>Method Boolean[] testBooleanRemove(Boolean[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Byte[] testByteRemove(Byte[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Character[] testCharRemove(Character[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Double[] testDoubleRemove(Double[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Float[] testFloatRemove(Float[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testIntegerRemove(Integer[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Long[] testLongRemove(Long[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method Short[] testShortRemove(Short[] inArr,int pos)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal testMedianBigInteger(BigInteger[] values)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1612,8 +1894,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1680,12 +1969,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1727,52 +2010,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="9" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="12" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="11" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="10" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="2"/>
+    <cellStyle name="20% — акцент5" xfId="2" builtinId="46"/>
+    <cellStyle name="40% — акцент1" xfId="1" builtinId="31"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1845,19 +2128,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1890,9 +2176,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1925,9 +2211,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1960,9 +2263,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2015,7 +2335,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2024,13 +2344,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2040,7 +2360,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2049,7 +2369,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2058,7 +2378,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2068,12 +2388,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2104,7 +2424,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2123,7 +2443,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2135,34 +2455,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK114"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="19.5703125" collapsed="true"/>
-    <col min="4" max="4" width="38.42578125" collapsed="true"/>
-    <col min="5" max="5" width="9.5703125" collapsed="true"/>
-    <col min="6" max="6" width="28.85546875" collapsed="true"/>
-    <col min="7" max="7" width="38.42578125" collapsed="true"/>
-    <col min="8" max="8" width="9.5703125" collapsed="true"/>
-    <col min="9" max="9" width="72.85546875" collapsed="true"/>
-    <col min="10" max="10" width="27.28515625" collapsed="true"/>
-    <col min="11" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" collapsed="1"/>
+    <col min="4" max="4" width="38.42578125" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" collapsed="1"/>
+    <col min="6" max="6" width="28.85546875" collapsed="1"/>
+    <col min="7" max="7" width="38.42578125" collapsed="1"/>
+    <col min="8" max="8" width="9.5703125" collapsed="1"/>
+    <col min="9" max="9" width="72.85546875" collapsed="1"/>
+    <col min="10" max="10" width="27.28515625" collapsed="1"/>
+    <col min="11" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="17" t="s">
@@ -2174,10 +2494,10 @@
       <c r="G3" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2186,10 +2506,10 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="16"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2282,10 +2602,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -2294,10 +2614,10 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="16"/>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2390,10 +2710,10 @@
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -2402,10 +2722,10 @@
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="16"/>
       <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2467,7 +2787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
         <v>-2147483648</v>
       </c>
@@ -2481,33 +2801,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F30" s="5">
         <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="18" t="s">
+      <c r="I30" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="16"/>
+      <c r="I33" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
@@ -2518,8 +2849,11 @@
       <c r="G34" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2529,7 +2863,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
         <v>10</v>
       </c>
@@ -2541,7 +2875,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="5">
         <v>2147483647</v>
       </c>
@@ -2555,7 +2889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="5">
         <v>-2147483648</v>
       </c>
@@ -2569,7 +2903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F39" s="5">
         <v>0</v>
       </c>
@@ -2577,25 +2911,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="18" t="s">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="18"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>40</v>
       </c>
@@ -2617,7 +2951,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
         <v>10</v>
       </c>
@@ -2629,7 +2963,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="5">
         <v>-128</v>
       </c>
@@ -2643,7 +2977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C47" s="5">
         <v>127</v>
       </c>
@@ -2657,7 +2991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F48" s="6" t="s">
         <v>17</v>
       </c>
@@ -2666,10 +3000,10 @@
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="18"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
@@ -2678,10 +3012,10 @@
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="18"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -2763,10 +3097,10 @@
       <c r="G60" s="17"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="18"/>
+      <c r="D62" s="16"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
@@ -2775,10 +3109,10 @@
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="18"/>
+      <c r="G63" s="16"/>
       <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
@@ -2871,10 +3205,10 @@
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="18"/>
+      <c r="D71" s="16"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
@@ -2883,10 +3217,10 @@
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="18"/>
+      <c r="G72" s="16"/>
       <c r="I72" s="2" t="s">
         <v>56</v>
       </c>
@@ -2979,10 +3313,10 @@
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="18"/>
+      <c r="D80" s="16"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
@@ -2991,10 +3325,10 @@
       <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="18"/>
+      <c r="G81" s="16"/>
       <c r="I81" s="2" t="s">
         <v>61</v>
       </c>
@@ -3056,7 +3390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="5">
         <v>-2147483648</v>
       </c>
@@ -3070,33 +3404,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F87" s="5">
         <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="18" t="s">
+      <c r="I87" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I88" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="18"/>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D89" s="16"/>
+    </row>
+    <row r="90" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="18" t="s">
+      <c r="F90" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="18"/>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G90" s="16"/>
+      <c r="I90" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>50</v>
       </c>
@@ -3107,8 +3452,11 @@
       <c r="G91" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I91" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>36</v>
       </c>
@@ -3167,10 +3515,10 @@
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="18"/>
+      <c r="D98" s="16"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
@@ -3179,10 +3527,10 @@
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="18" t="s">
+      <c r="F99" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G99" s="18"/>
+      <c r="G99" s="16"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
@@ -3255,10 +3603,10 @@
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="18"/>
+      <c r="D107" s="16"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
@@ -3267,10 +3615,10 @@
       <c r="D108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="18" t="s">
+      <c r="F108" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="18"/>
+      <c r="G108" s="16"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
@@ -3344,6 +3692,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C80:D80"/>
     <mergeCell ref="C107:D107"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="F81:G81"/>
@@ -3351,370 +3719,386 @@
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F99:G99"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="78.7109375" collapsed="true"/>
-    <col min="4" max="4" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" width="78.7109375" collapsed="true"/>
-    <col min="6" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="78.7109375" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="78.7109375" collapsed="1"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
+        <v>192</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" width="62.42578125" collapsed="true"/>
-    <col min="5" max="5" width="9.5703125" collapsed="true"/>
-    <col min="6" max="6" width="62.42578125" collapsed="true"/>
-    <col min="7" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="2" width="1.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" collapsed="1"/>
+    <col min="4" max="4" width="62.42578125" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" collapsed="1"/>
+    <col min="6" max="6" width="80.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
+        <v>205</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A7:AMK8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="38.85546875" collapsed="true"/>
-    <col min="4" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="38.85546875" collapsed="1"/>
+    <col min="4" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A2:AMK126"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" width="82.42578125" collapsed="true"/>
-    <col min="3" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" collapsed="1"/>
+    <col min="2" max="2" width="82.42578125" collapsed="1"/>
+    <col min="3" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -3722,12 +4106,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -3735,12 +4119,12 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
@@ -3748,12 +4132,12 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
@@ -3761,12 +4145,12 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
@@ -3774,12 +4158,12 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
@@ -3787,12 +4171,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
@@ -3800,12 +4184,12 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
@@ -3813,12 +4197,12 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
@@ -3826,12 +4210,12 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
@@ -3839,12 +4223,12 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -3852,12 +4236,12 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
@@ -3865,12 +4249,12 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
@@ -3878,12 +4262,12 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
@@ -3891,12 +4275,12 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
@@ -3904,12 +4288,12 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -3917,12 +4301,12 @@
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
@@ -3930,12 +4314,12 @@
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
@@ -3943,12 +4327,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -3956,12 +4340,12 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
@@ -3969,12 +4353,12 @@
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
@@ -3982,12 +4366,12 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
@@ -3995,213 +4379,243 @@
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="9" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>318</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="9" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="10" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A2:AMK24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" collapsed="true"/>
-    <col min="2" max="2" width="45.85546875" collapsed="true"/>
-    <col min="3" max="3" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" width="39.0" collapsed="true"/>
-    <col min="5" max="1025" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="10.28515625" collapsed="1"/>
+    <col min="2" max="2" width="45.85546875" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" collapsed="1"/>
+    <col min="4" max="4" width="39" collapsed="1"/>
+    <col min="5" max="1025" width="10.28515625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="9" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -4211,20 +4625,20 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="9" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -4234,20 +4648,20 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="9" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -4257,20 +4671,20 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="9" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -4280,20 +4694,20 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="9" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -4303,20 +4717,20 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="9" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -4327,13 +4741,13 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="12"/>
       <c r="D20" s="9" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12"/>
       <c r="D21" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -4343,18 +4757,18 @@
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
       <c r="D23" s="9" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="12"/>
       <c r="D24" s="10" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4363,33 +4777,33 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A3:ALX4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="49.28515625" collapsed="true"/>
-    <col min="3" max="1012" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="49.28515625" collapsed="1"/>
+    <col min="3" max="1012" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4398,113 +4812,113 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A3:AMK28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="51.28515625" collapsed="true"/>
-    <col min="3" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="51.28515625" collapsed="1"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4513,185 +4927,217 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A3:AMK37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="50.28515625" collapsed="true"/>
-    <col min="3" max="3" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" width="56.42578125" collapsed="true"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="50.28515625" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="56.42578125" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>349</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4700,209 +5146,333 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A2:AMK60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" width="68.0" collapsed="true"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="68" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>380</v>
+        <v>347</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>373</v>
+        <v>340</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="10" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4911,113 +5481,163 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A2:AMK27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="56.42578125" collapsed="true"/>
-    <col min="3" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="56.42578125" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="71.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5026,33 +5646,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="72.85546875" collapsed="true"/>
-    <col min="4" max="4" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" width="72.85546875" collapsed="true"/>
-    <col min="6" max="6" width="9.5703125" collapsed="true"/>
-    <col min="7" max="7" width="19.5703125" collapsed="true"/>
-    <col min="8" max="8" width="38.42578125" collapsed="true"/>
-    <col min="9" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="72.85546875" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="72.85546875" collapsed="1"/>
+    <col min="6" max="6" width="9.5703125" collapsed="1"/>
+    <col min="7" max="7" width="19.5703125" collapsed="1"/>
+    <col min="8" max="8" width="38.42578125" collapsed="1"/>
+    <col min="9" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -5246,175 +5866,303 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A2:AMK52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="53.42578125" collapsed="true"/>
-    <col min="3" max="3" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" width="57.5703125" collapsed="true"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="53.42578125" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="75.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5423,133 +6171,133 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A2:AMK33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="62.28515625" collapsed="true"/>
-    <col min="3" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="62.28515625" collapsed="1"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5558,123 +6306,123 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A2:AMK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="78.85546875" collapsed="true"/>
-    <col min="3" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="78.85546875" collapsed="1"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5683,249 +6431,249 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A2:AMK42"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" width="50.0" collapsed="true"/>
-    <col min="3" max="3" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" width="65.42578125" collapsed="true"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="50" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="65.42578125" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5934,8 +6682,8 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -5943,27 +6691,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -5971,48 +6719,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="53.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
@@ -6037,44 +6785,189 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="B1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
+    <col min="4" max="4" width="67.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>495</v>
       </c>
     </row>
+    <row r="18" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="72.85546875" collapsed="true"/>
-    <col min="4" max="4" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" width="72.85546875" collapsed="true"/>
-    <col min="6" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="72.85546875" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="72.85546875" collapsed="1"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6312,36 +7205,36 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="72.85546875" collapsed="true"/>
-    <col min="4" max="4" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" width="72.85546875" collapsed="true"/>
-    <col min="6" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="72.85546875" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="72.85546875" collapsed="1"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -6567,36 +7460,38 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AMK57"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="82.42578125" collapsed="true"/>
-    <col min="4" max="4" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" width="93.28515625" collapsed="true"/>
-    <col min="6" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="82.42578125" collapsed="1"/>
+    <col min="4" max="4" width="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="82.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5703125" collapsed="1"/>
+    <col min="7" max="7" width="69.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -6616,10 +7511,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>502</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>156</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6632,10 +7527,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>157</v>
+        <v>501</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>158</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6648,10 +7543,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>159</v>
+        <v>500</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6664,10 +7559,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>161</v>
+        <v>511</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>162</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6680,10 +7575,10 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>163</v>
+        <v>499</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>164</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -6696,10 +7591,10 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>165</v>
+        <v>498</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>166</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
@@ -6712,10 +7607,10 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>167</v>
+        <v>497</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>168</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
@@ -6728,10 +7623,10 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>169</v>
+        <v>496</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>170</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
@@ -6742,425 +7637,632 @@
         <v>154</v>
       </c>
     </row>
+    <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" width="82.42578125" collapsed="true"/>
-    <col min="4" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="82.42578125" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="66.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
+        <v>156</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A3:AMK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" width="82.42578125" collapsed="true"/>
-    <col min="3" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" collapsed="1"/>
+    <col min="2" max="2" width="82.42578125" collapsed="1"/>
+    <col min="3" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A3:AMK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" width="82.42578125" collapsed="true"/>
-    <col min="3" max="3" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" width="82.42578125" collapsed="true"/>
-    <col min="5" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" collapsed="1"/>
+    <col min="2" max="2" width="82.42578125" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" collapsed="1"/>
+    <col min="4" max="4" width="82.42578125" collapsed="1"/>
+    <col min="5" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row ht="16.5" r="5" spans="2:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row ht="16.5" r="6" spans="2:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row ht="16.5" r="7" spans="2:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="8" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" width="72.85546875" collapsed="true"/>
-    <col min="3" max="3" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" width="72.85546875" collapsed="true"/>
-    <col min="5" max="1025" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" collapsed="1"/>
+    <col min="2" max="2" width="72.85546875" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" collapsed="1"/>
+    <col min="4" max="4" width="72.85546875" collapsed="1"/>
+    <col min="5" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" firstPageNumber="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" usePrinterDefaults="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="891"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="891" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Mod" sheetId="2" r:id="rId1"/>
@@ -15,29 +15,28 @@
     <sheet name="noNulls" sheetId="7" r:id="rId6"/>
     <sheet name="error and format" sheetId="8" r:id="rId7"/>
     <sheet name="Quotient" sheetId="9" r:id="rId8"/>
-    <sheet name="Avg" sheetId="11" r:id="rId9"/>
-    <sheet name="logical functions" sheetId="12" r:id="rId10"/>
-    <sheet name="Differents" sheetId="13" r:id="rId11"/>
-    <sheet name="Product" sheetId="14" r:id="rId12"/>
-    <sheet name="Logical" sheetId="15" r:id="rId13"/>
-    <sheet name="Round" sheetId="16" r:id="rId14"/>
-    <sheet name="MaxMinTests2" sheetId="17" r:id="rId15"/>
-    <sheet name="Add" sheetId="18" r:id="rId16"/>
-    <sheet name="AddAll" sheetId="19" r:id="rId17"/>
-    <sheet name="Remove" sheetId="20" r:id="rId18"/>
-    <sheet name="Empty" sheetId="21" r:id="rId19"/>
-    <sheet name="Sheet22" sheetId="22" r:id="rId20"/>
-    <sheet name="small and big" sheetId="23" r:id="rId21"/>
-    <sheet name="arrays" sheetId="24" r:id="rId22"/>
-    <sheet name="alliases" sheetId="25" r:id="rId23"/>
-    <sheet name="median" sheetId="26" r:id="rId24"/>
+    <sheet name="logical functions" sheetId="12" r:id="rId9"/>
+    <sheet name="Differents" sheetId="13" r:id="rId10"/>
+    <sheet name="Product" sheetId="14" r:id="rId11"/>
+    <sheet name="Logical" sheetId="15" r:id="rId12"/>
+    <sheet name="Round" sheetId="16" r:id="rId13"/>
+    <sheet name="MaxMinTests2" sheetId="17" r:id="rId14"/>
+    <sheet name="Add" sheetId="18" r:id="rId15"/>
+    <sheet name="AddAll" sheetId="19" r:id="rId16"/>
+    <sheet name="Remove" sheetId="20" r:id="rId17"/>
+    <sheet name="Empty" sheetId="21" r:id="rId18"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId19"/>
+    <sheet name="small and big" sheetId="23" r:id="rId20"/>
+    <sheet name="arrays" sheetId="24" r:id="rId21"/>
+    <sheet name="alliases" sheetId="25" r:id="rId22"/>
+    <sheet name="median" sheetId="26" r:id="rId23"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="492">
   <si>
     <t>Tests to test rules helper methods for Mod methods</t>
   </si>
@@ -399,27 +398,6 @@
     <t>Method LongValue testQuaotientDoubleType(double number, double divisor)</t>
   </si>
   <si>
-    <t>Tests to test rules helper methods for BigDecimalValue type</t>
-  </si>
-  <si>
-    <t>Method BigDecimalValue testAvgBigDecimal(BigDecimalValue[] values)</t>
-  </si>
-  <si>
-    <t>return avg(values);</t>
-  </si>
-  <si>
-    <t>Method java.lang.Float testAvgFloat(java.lang.Float[] values)</t>
-  </si>
-  <si>
-    <t>Method java.lang.Double testAvgDouble(java.lang.Double[] values)</t>
-  </si>
-  <si>
-    <t>Method float testAvgFloatType(float[] values)</t>
-  </si>
-  <si>
-    <t>Method double testAvgDoubleType(double[] values)</t>
-  </si>
-  <si>
     <t>Method boolean checkOr()</t>
   </si>
   <si>
@@ -1183,39 +1161,6 @@
   </si>
   <si>
     <t>return instanceOf(a, Number.class);</t>
-  </si>
-  <si>
-    <t>Method BigDecimalValue testAvgBigInteger(BigIntegerValue[] values)</t>
-  </si>
-  <si>
-    <t>Method Double testAvgByteType(byte[] values)</t>
-  </si>
-  <si>
-    <t>Method java.lang.Double testAvgByte(java.lang.Byte[] values)</t>
-  </si>
-  <si>
-    <t>Method Double testAvgIntegerType(int[] values)</t>
-  </si>
-  <si>
-    <t>Method java.lang.Double testAvgInteger(java.lang.Integer[] values)</t>
-  </si>
-  <si>
-    <t>Method Double testAvgLongType(long[] values)</t>
-  </si>
-  <si>
-    <t>Method java.lang.Double testAvgLong(java.lang.Long[] values)</t>
-  </si>
-  <si>
-    <t>Method Double testAvgShortType(short[] values)</t>
-  </si>
-  <si>
-    <t>Method java.lang.Double testAvgShort(java.lang.Short[] values)</t>
-  </si>
-  <si>
-    <t>Method java.math.BigDecimal testAvgBigDecimalArray(java.math.BigDecimal[] values)</t>
-  </si>
-  <si>
-    <t>Method java.math.BigDecimal testAvgBigIntegerArray(java.math.BigInteger[] values)</t>
   </si>
   <si>
     <t>Method Double testMedianByte(Byte[] values)</t>
@@ -2101,7 +2046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2325,37 +2270,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:AMK8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.5703125" collapsed="1"/>
-    <col min="3" max="3" width="38.85546875" collapsed="1"/>
-    <col min="4" max="1025" width="9.5703125" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK126"/>
   <sheetViews>
     <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
@@ -2371,12 +2285,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -2384,12 +2298,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -2397,12 +2311,12 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
@@ -2410,12 +2324,12 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
@@ -2423,12 +2337,12 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
@@ -2436,12 +2350,12 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
@@ -2449,12 +2363,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
@@ -2462,12 +2376,12 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
@@ -2475,12 +2389,12 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
@@ -2488,12 +2402,12 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
@@ -2501,12 +2415,12 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -2514,12 +2428,12 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
@@ -2527,12 +2441,12 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
@@ -2540,12 +2454,12 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
@@ -2553,12 +2467,12 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
@@ -2566,12 +2480,12 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -2579,12 +2493,12 @@
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
@@ -2592,12 +2506,12 @@
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
@@ -2605,12 +2519,12 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
@@ -2618,12 +2532,12 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
@@ -2631,12 +2545,12 @@
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
@@ -2644,12 +2558,12 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
@@ -2657,202 +2571,202 @@
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK24"/>
   <sheetViews>
@@ -2880,20 +2794,20 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -2903,20 +2817,20 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2926,20 +2840,20 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -2949,20 +2863,20 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -2972,20 +2886,20 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -2995,20 +2909,20 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -3019,13 +2933,13 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
       <c r="D20" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -3035,13 +2949,13 @@
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
       <c r="D23" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
       <c r="D24" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3054,7 +2968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:ALX4"/>
   <sheetViews>
@@ -3071,12 +2985,12 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +3003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AMK28"/>
   <sheetViews>
@@ -3106,92 +3020,92 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3204,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AMK37"/>
   <sheetViews>
@@ -3223,194 +3137,194 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3423,7 +3337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK60"/>
   <sheetViews>
@@ -3442,310 +3356,310 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" s="5" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D59" s="5" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D60" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3758,7 +3672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK27"/>
   <sheetViews>
@@ -3777,140 +3691,140 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3923,7 +3837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK52"/>
   <sheetViews>
@@ -3942,274 +3856,274 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4222,7 +4136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK33"/>
   <sheetViews>
@@ -4239,112 +4153,237 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMK30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="78.85546875" collapsed="1"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4626,131 +4665,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMK30"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="1"/>
-    <col min="2" max="2" width="78.85546875" collapsed="1"/>
-    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4768,226 +4682,226 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5000,7 +4914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
@@ -5015,12 +4929,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -5028,7 +4942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D20"/>
   <sheetViews>
@@ -5044,42 +4958,42 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
@@ -5104,12 +5018,12 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -5117,7 +5031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D25"/>
   <sheetViews>
@@ -5135,125 +5049,125 @@
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5563,10 +5477,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5579,10 +5493,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5595,10 +5509,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5611,10 +5525,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5627,10 +5541,10 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -5643,10 +5557,10 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
@@ -5659,10 +5573,10 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
@@ -5675,10 +5589,10 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
@@ -5692,10 +5606,10 @@
     <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5709,10 +5623,10 @@
     <row r="33" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5726,10 +5640,10 @@
     <row r="36" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5743,10 +5657,10 @@
     <row r="39" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5760,10 +5674,10 @@
     <row r="42" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="44" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5777,10 +5691,10 @@
     <row r="45" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="47" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5794,10 +5708,10 @@
     <row r="48" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="50" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5811,10 +5725,10 @@
     <row r="51" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5828,7 +5742,7 @@
     <row r="54" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5885,10 +5799,10 @@
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5902,10 +5816,10 @@
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5919,10 +5833,10 @@
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5936,10 +5850,10 @@
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5953,10 +5867,10 @@
     <row r="17" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5970,10 +5884,10 @@
     <row r="20" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5987,10 +5901,10 @@
     <row r="23" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6004,10 +5918,10 @@
     <row r="26" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6321,165 +6235,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK29"/>
+  <dimension ref="A7:AMK8"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="1.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" collapsed="1"/>
-    <col min="4" max="4" width="62.42578125" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" collapsed="1"/>
-    <col min="6" max="6" width="80.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="1025" width="9.5703125" collapsed="1"/>
+    <col min="1" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="38.85546875" collapsed="1"/>
+    <col min="4" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="891" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="891" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Mod" sheetId="2" r:id="rId1"/>
@@ -17,26 +17,25 @@
     <sheet name="Quotient" sheetId="9" r:id="rId8"/>
     <sheet name="logical functions" sheetId="12" r:id="rId9"/>
     <sheet name="Differents" sheetId="13" r:id="rId10"/>
-    <sheet name="Product" sheetId="14" r:id="rId11"/>
-    <sheet name="Logical" sheetId="15" r:id="rId12"/>
-    <sheet name="Round" sheetId="16" r:id="rId13"/>
-    <sheet name="MaxMinTests2" sheetId="17" r:id="rId14"/>
-    <sheet name="Add" sheetId="18" r:id="rId15"/>
-    <sheet name="AddAll" sheetId="19" r:id="rId16"/>
-    <sheet name="Remove" sheetId="20" r:id="rId17"/>
-    <sheet name="Empty" sheetId="21" r:id="rId18"/>
-    <sheet name="Sheet22" sheetId="22" r:id="rId19"/>
-    <sheet name="small and big" sheetId="23" r:id="rId20"/>
-    <sheet name="arrays" sheetId="24" r:id="rId21"/>
-    <sheet name="alliases" sheetId="25" r:id="rId22"/>
-    <sheet name="median" sheetId="26" r:id="rId23"/>
+    <sheet name="Logical" sheetId="15" r:id="rId11"/>
+    <sheet name="Round" sheetId="16" r:id="rId12"/>
+    <sheet name="MaxMinTests2" sheetId="17" r:id="rId13"/>
+    <sheet name="Add" sheetId="18" r:id="rId14"/>
+    <sheet name="AddAll" sheetId="19" r:id="rId15"/>
+    <sheet name="Remove" sheetId="20" r:id="rId16"/>
+    <sheet name="Empty" sheetId="21" r:id="rId17"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId18"/>
+    <sheet name="small and big" sheetId="23" r:id="rId19"/>
+    <sheet name="arrays" sheetId="24" r:id="rId20"/>
+    <sheet name="alliases" sheetId="25" r:id="rId21"/>
+    <sheet name="median" sheetId="26" r:id="rId22"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="477">
   <si>
     <t>Tests to test rules helper methods for Mod methods</t>
   </si>
@@ -624,51 +623,6 @@
   </si>
   <si>
     <t>return toRadians(x);</t>
-  </si>
-  <si>
-    <t>Method double testByteTypeProduct(byte[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method double testByteProduct(Byte[] inputArray)</t>
-  </si>
-  <si>
-    <t>return product(inputArray);</t>
-  </si>
-  <si>
-    <t>Method double testShortTypeProduct(short[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method double testShortProduct(Short[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method double testIntegerTypeProduct(int[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method double testIntegerProduct(Integer[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method double testLongTypeProduct(long[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method double testLongProduct(Long[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method double testFloatTypeProduct(float[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method double testFloatProduct(Float[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method double testDoubleTypeProduct(double[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method double testDoubleProduct(Double[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method BigInteger  testBigIntegerProduct(BigInteger[] inputArray)</t>
-  </si>
-  <si>
-    <t>Method BigDecimal testBigDecimalProduct(BigDecimal[] inputArray)</t>
   </si>
   <si>
     <t>Method long testDoubleTypeRound(double num)</t>
@@ -1652,7 +1606,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1661,7 +1615,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2064,12 +2017,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -2741,32 +2694,32 @@
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -2777,202 +2730,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMK24"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" collapsed="1"/>
-    <col min="2" max="2" width="45.85546875" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" collapsed="1"/>
-    <col min="4" max="4" width="39" collapsed="1"/>
-    <col min="5" max="1025" width="10.28515625" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
-      <c r="D20" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
-      <c r="D21" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
-      <c r="D23" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="8"/>
-      <c r="D24" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:ALX4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2985,12 +2745,12 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3003,7 +2763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AMK28"/>
   <sheetViews>
@@ -3020,92 +2780,92 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3118,7 +2878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AMK37"/>
   <sheetViews>
@@ -3137,194 +2897,194 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3337,7 +3097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK60"/>
   <sheetViews>
@@ -3356,310 +3116,310 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" s="5" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D59" s="5" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D60" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +3432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK27"/>
   <sheetViews>
@@ -3691,140 +3451,140 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3837,7 +3597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK52"/>
   <sheetViews>
@@ -3856,274 +3616,274 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +3896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK33"/>
   <sheetViews>
@@ -4153,112 +3913,112 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4271,7 +4031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK30"/>
   <sheetViews>
@@ -4288,102 +4048,353 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMK42"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="50" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="65.42578125" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>330</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4415,12 +4426,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -4664,257 +4675,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMK42"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="1"/>
-    <col min="2" max="2" width="50" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" collapsed="1"/>
-    <col min="4" max="4" width="65.42578125" collapsed="1"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
@@ -4929,12 +4689,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4942,7 +4702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D20"/>
   <sheetViews>
@@ -4957,73 +4717,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>364</v>
+      <c r="B2" s="9" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>366</v>
+      <c r="B3" s="8" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>367</v>
+      <c r="B4" s="8" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>368</v>
+      <c r="B5" s="8" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>369</v>
+      <c r="B6" s="8" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>365</v>
+      <c r="B9" s="10" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>370</v>
+      <c r="B13" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5031,7 +4791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D25"/>
   <sheetViews>
@@ -5049,125 +4809,125 @@
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5195,12 +4955,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -5452,12 +5212,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -5477,10 +5237,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5493,10 +5253,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5509,10 +5269,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5525,10 +5285,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5541,10 +5301,10 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -5557,10 +5317,10 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
@@ -5573,10 +5333,10 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
@@ -5589,10 +5349,10 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
@@ -5606,10 +5366,10 @@
     <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5623,10 +5383,10 @@
     <row r="33" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5640,10 +5400,10 @@
     <row r="36" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5657,10 +5417,10 @@
     <row r="39" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5674,10 +5434,10 @@
     <row r="42" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5691,10 +5451,10 @@
     <row r="45" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5708,10 +5468,10 @@
     <row r="48" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5725,10 +5485,10 @@
     <row r="51" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5742,7 +5502,7 @@
     <row r="54" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5779,12 +5539,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -5799,10 +5559,10 @@
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5816,10 +5576,10 @@
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5833,10 +5593,10 @@
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5850,10 +5610,10 @@
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5867,10 +5627,10 @@
     <row r="17" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5884,10 +5644,10 @@
     <row r="20" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5901,10 +5661,10 @@
     <row r="23" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5918,10 +5678,10 @@
     <row r="26" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6041,12 +5801,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -6237,7 +5997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AMK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\test\rules\helpers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE1696A-7ED3-4950-8200-489D452ABD24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="891" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="891" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod" sheetId="2" r:id="rId1"/>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="493">
   <si>
     <t>Tests to test rules helper methods for Mod methods</t>
   </si>
@@ -1466,12 +1472,60 @@
   </si>
   <si>
     <t>Method BigDecimal testMedianBigInteger(BigInteger[] values)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerTypeInIntRangeArr(IntRange[] searchIn, Integer searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleTypeInDoubleRangeArr(DoubleRange[] searchIn, Double searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharacterTypeInCharRangeArr(CharRange[] searchIn, Character searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharacterTypeInCharRangeArr2(CharRange[] searchIn, char searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleTypeInDoubleRangeArr2(DoubleRange[] searchIn, double searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerTypeInIntRangeArr2(IntRange[] searchIn, int searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsStringTypeInStringRangeArr(StringRange[] searchIn, String searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharSequenceTypeInStringRangeArr(StringRange[] searchIn, CharSequence searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerArrTypeInIntRangeArr(IntRange[] searchIn, Integer[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsIntegerArrTypeInIntRangeArr2(IntRange[] searchIn, int[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleArrTypeInDoubleRangeArr(DoubleRange[] searchIn, Double[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDoubleArrTypeInDoubleRangeArr2(DoubleRange[] searchIn, double[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharacterArrTypeInCharRangeArr(CharRange[] searchIn, Character[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharacterArrTypeInCharRangeArr2(CharRange[] searchIn, char[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsCharSequenceArrTypeInStringRangeArr(StringRange[] searchIn, CharSequence[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsStringArrTypeInStringRangeArr(StringRange[] searchIn, String[] searchFor)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1625,9 +1679,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — акцент5" xfId="2" builtinId="46"/>
+    <cellStyle name="40% — акцент1" xfId="1" builtinId="31"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1711,9 +1765,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1751,9 +1805,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1786,9 +1840,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1821,9 +1892,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1996,7 +2084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
@@ -2222,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:AMK126"/>
   <sheetViews>
     <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
@@ -2729,10 +2817,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A3:ALX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2764,7 +2852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A3:AMK28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2879,7 +2967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A3:AMK37"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -3098,7 +3186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A2:AMK60"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
@@ -3433,7 +3521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:AMK27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3598,7 +3686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A2:AMK52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3897,7 +3985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A2:AMK33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4032,7 +4120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A2:AMK30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4157,7 +4245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A2:AMK42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4408,7 +4496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK50"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
@@ -4675,7 +4763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4703,7 +4791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4792,7 +4880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -4937,7 +5025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5192,11 +5280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMK80"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5355,7 +5443,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>85</v>
       </c>
@@ -5363,154 +5451,290 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
     <row r="31" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
+    <row r="43" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
+    <row r="44" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="2" t="s">
+    <row r="46" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
+    <row r="47" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="2" t="s">
+    <row r="49" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
+    <row r="50" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="2" t="s">
+    <row r="52" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="1" t="s">
+    <row r="53" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="44" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="2" t="s">
+    <row r="55" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="1" t="s">
+    <row r="56" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="47" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="2" t="s">
+    <row r="58" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
+    <row r="59" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="2" t="s">
+    <row r="61" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="1" t="s">
+    <row r="62" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="2" t="s">
+    <row r="64" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="1" t="s">
+    <row r="65" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="56" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="2" t="s">
+    <row r="67" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -5521,7 +5745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
@@ -5703,7 +5927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5734,7 +5958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:AMK7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5784,7 +6008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMK37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5994,7 +6218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A7:AMK8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\test\rules\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE1696A-7ED3-4950-8200-489D452ABD24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A991698A-BFFA-4D97-831B-614F0B3D133F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="891" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39930" yWindow="2580" windowWidth="23880" windowHeight="16965" tabRatio="891" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="496">
   <si>
     <t>Tests to test rules helper methods for Mod methods</t>
   </si>
@@ -1520,6 +1520,15 @@
   </si>
   <si>
     <t>Method boolean testContainsStringArrTypeInStringRangeArr(StringRange[] searchIn, String[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDateArrTypeInDateRangeArr(DateRange[] searchIn, Date[] searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDateInDateArr(Date[] searchIn, Date searchFor)</t>
+  </si>
+  <si>
+    <t>Method boolean testContainsDateTypeInDateRangeArr(DateRange[] searchIn, Date searchFor)</t>
   </si>
 </sst>
 </file>
@@ -5281,10 +5290,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AMK80"/>
+  <dimension ref="A1:AMK86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5734,7 +5743,35 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\test\rules\helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\openl2\DEV\org.openl.rules\test\rules\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A991698A-BFFA-4D97-831B-614F0B3D133F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC107EDF-9498-4D1B-8463-EE7C014AF387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39930" yWindow="2580" windowWidth="23880" windowHeight="16965" tabRatio="891" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="495">
   <si>
     <t>Tests to test rules helper methods for Mod methods</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>Method LongValue[] testSortLongValue(LongValue[] values)</t>
-  </si>
-  <si>
-    <t>Method ObjectValue[] testSortObjectValue(ObjectValue[] values)</t>
   </si>
   <si>
     <t>Method FloatValue[] testSortFloatValue(FloatValue[] values)</t>
@@ -2100,20 +2097,20 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" collapsed="1"/>
-    <col min="3" max="3" width="72.85546875" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" collapsed="1"/>
-    <col min="5" max="5" width="72.85546875" collapsed="1"/>
-    <col min="6" max="6" width="9.5703125" collapsed="1"/>
-    <col min="7" max="7" width="19.5703125" collapsed="1"/>
-    <col min="8" max="8" width="38.42578125" collapsed="1"/>
-    <col min="9" max="1025" width="9.5703125" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" collapsed="1"/>
+    <col min="2" max="2" width="9.5546875" collapsed="1"/>
+    <col min="3" max="3" width="72.88671875" collapsed="1"/>
+    <col min="4" max="4" width="9.5546875" collapsed="1"/>
+    <col min="5" max="5" width="72.88671875" collapsed="1"/>
+    <col min="6" max="6" width="9.5546875" collapsed="1"/>
+    <col min="7" max="7" width="19.5546875" collapsed="1"/>
+    <col min="8" max="8" width="38.44140625" collapsed="1"/>
+    <col min="9" max="1025" width="9.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2118,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2129,7 +2126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2137,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2153,7 +2150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2161,7 +2158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2169,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2177,7 +2174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2185,7 +2182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2193,7 +2190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2201,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
@@ -2209,7 +2206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
@@ -2217,7 +2214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
@@ -2225,7 +2222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2233,7 +2230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2241,7 +2238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -2249,62 +2246,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
@@ -2326,497 +2323,497 @@
       <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" collapsed="1"/>
-    <col min="2" max="2" width="82.42578125" collapsed="1"/>
-    <col min="3" max="1025" width="9.5703125" collapsed="1"/>
+    <col min="1" max="1" width="9.5546875" collapsed="1"/>
+    <col min="2" max="2" width="82.44140625" collapsed="1"/>
+    <col min="3" max="1025" width="9.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="5" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="5" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="5" t="s">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="5" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="5" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="5" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="5" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="s">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="5" t="s">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="6" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="5" t="s">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="6" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="5" t="s">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="5" t="s">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="5" t="s">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="5" t="s">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="6" t="s">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="5" t="s">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="5" t="s">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="6" t="s">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="5" t="s">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="6" t="s">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="5" t="s">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="6" t="s">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="5" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="6" t="s">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -2833,21 +2830,21 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="1"/>
-    <col min="2" max="2" width="49.28515625" collapsed="1"/>
-    <col min="3" max="1012" width="11.5703125" collapsed="1"/>
+    <col min="1" max="1" width="11.5546875" collapsed="1"/>
+    <col min="2" max="2" width="49.33203125" collapsed="1"/>
+    <col min="3" max="1012" width="11.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2868,101 +2865,101 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="1"/>
-    <col min="2" max="2" width="51.28515625" collapsed="1"/>
-    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
+    <col min="1" max="1" width="11.5546875" collapsed="1"/>
+    <col min="2" max="2" width="51.33203125" collapsed="1"/>
+    <col min="3" max="1025" width="11.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2983,205 +2980,205 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="1"/>
-    <col min="2" max="2" width="50.28515625" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" collapsed="1"/>
-    <col min="4" max="4" width="56.42578125" collapsed="1"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
+    <col min="1" max="1" width="11.5546875" collapsed="1"/>
+    <col min="2" max="2" width="50.33203125" collapsed="1"/>
+    <col min="3" max="3" width="11.5546875" collapsed="1"/>
+    <col min="4" max="4" width="56.44140625" collapsed="1"/>
+    <col min="5" max="1025" width="11.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="5" t="s">
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="5" t="s">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="D21" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="5" t="s">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+      <c r="D24" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="5" t="s">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="D27" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="5" t="s">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="D30" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3202,321 +3199,321 @@
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="1" max="1" width="11.5546875" collapsed="1"/>
+    <col min="2" max="2" width="70.109375" collapsed="1"/>
+    <col min="3" max="3" width="11.5546875" collapsed="1"/>
     <col min="4" max="4" width="68" collapsed="1"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
+    <col min="5" max="1025" width="11.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="6" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D20" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D20" s="5" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D47" s="5" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="5" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D60" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3537,151 +3534,151 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="1"/>
-    <col min="2" max="2" width="56.42578125" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" collapsed="1"/>
-    <col min="4" max="4" width="71.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
+    <col min="1" max="1" width="11.5546875" collapsed="1"/>
+    <col min="2" max="2" width="56.44140625" collapsed="1"/>
+    <col min="3" max="3" width="11.5546875" collapsed="1"/>
+    <col min="4" max="4" width="71.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="11.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3702,285 +3699,285 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="1"/>
-    <col min="2" max="2" width="53.42578125" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" collapsed="1"/>
-    <col min="4" max="4" width="75.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
+    <col min="1" max="1" width="11.5546875" collapsed="1"/>
+    <col min="2" max="2" width="53.44140625" collapsed="1"/>
+    <col min="3" max="3" width="11.5546875" collapsed="1"/>
+    <col min="4" max="4" width="75.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="11.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="5" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" s="5" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="D23" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="D26" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4001,121 +3998,121 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="1"/>
-    <col min="2" max="2" width="62.28515625" collapsed="1"/>
-    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
+    <col min="1" max="1" width="11.5546875" collapsed="1"/>
+    <col min="2" max="2" width="62.33203125" collapsed="1"/>
+    <col min="3" max="1025" width="11.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4136,111 +4133,111 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="1"/>
-    <col min="2" max="2" width="78.85546875" collapsed="1"/>
-    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
+    <col min="1" max="1" width="11.5546875" collapsed="1"/>
+    <col min="2" max="2" width="78.88671875" collapsed="1"/>
+    <col min="3" max="1025" width="11.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4261,237 +4258,237 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="1" max="1" width="11.5546875" collapsed="1"/>
     <col min="2" max="2" width="50" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" collapsed="1"/>
-    <col min="4" max="4" width="65.42578125" collapsed="1"/>
-    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
+    <col min="3" max="3" width="11.5546875" collapsed="1"/>
+    <col min="4" max="4" width="65.44140625" collapsed="1"/>
+    <col min="5" max="1025" width="11.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D17" s="5" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D20" s="5" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="D23" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="D26" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D26" s="5" t="s">
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="D29" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D29" s="5" t="s">
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+      <c r="D32" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D32" s="5" t="s">
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+      <c r="D35" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D35" s="5" t="s">
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
+      <c r="D38" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D38" s="5" t="s">
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
+      <c r="D41" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4512,17 +4509,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" collapsed="1"/>
-    <col min="3" max="3" width="72.85546875" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" collapsed="1"/>
-    <col min="5" max="5" width="72.85546875" collapsed="1"/>
-    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" collapsed="1"/>
+    <col min="2" max="2" width="9.5546875" collapsed="1"/>
+    <col min="3" max="3" width="72.88671875" collapsed="1"/>
+    <col min="4" max="4" width="9.5546875" collapsed="1"/>
+    <col min="5" max="5" width="72.88671875" collapsed="1"/>
+    <col min="6" max="1025" width="9.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
@@ -4530,7 +4527,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4538,7 +4535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -4546,7 +4543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4554,7 +4551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
@@ -4562,7 +4559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
@@ -4570,7 +4567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
@@ -4578,7 +4575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
@@ -4586,7 +4583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
@@ -4594,7 +4591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
@@ -4602,7 +4599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
@@ -4610,7 +4607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
@@ -4618,7 +4615,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
@@ -4626,7 +4623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>39</v>
       </c>
@@ -4634,7 +4631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
@@ -4642,7 +4639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
@@ -4650,7 +4647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -4658,7 +4655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
@@ -4666,7 +4663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
@@ -4674,7 +4671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
@@ -4682,7 +4679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
@@ -4690,7 +4687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
@@ -4706,7 +4703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
         <v>49</v>
       </c>
@@ -4714,7 +4711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
         <v>30</v>
       </c>
@@ -4722,42 +4719,42 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
         <v>30</v>
       </c>
@@ -4779,19 +4776,19 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4807,80 +4804,80 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="53.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="53.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -4896,138 +4893,138 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="4" max="4" width="67.85546875" customWidth="1"/>
+    <col min="4" max="4" width="67.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5037,21 +5034,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E45:E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" collapsed="1"/>
-    <col min="3" max="3" width="72.85546875" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" collapsed="1"/>
-    <col min="5" max="5" width="72.85546875" collapsed="1"/>
-    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" collapsed="1"/>
+    <col min="2" max="2" width="9.5546875" collapsed="1"/>
+    <col min="3" max="3" width="72.88671875" collapsed="1"/>
+    <col min="4" max="4" width="9.5546875" collapsed="1"/>
+    <col min="5" max="5" width="72.88671875" collapsed="1"/>
+    <col min="6" max="1025" width="9.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
@@ -5059,7 +5056,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
@@ -5067,7 +5064,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
@@ -5075,7 +5072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>59</v>
       </c>
@@ -5083,7 +5080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
@@ -5091,7 +5088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
@@ -5099,7 +5096,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
@@ -5107,7 +5104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>63</v>
       </c>
@@ -5115,7 +5112,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
@@ -5123,7 +5120,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>58</v>
       </c>
@@ -5139,7 +5136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
@@ -5147,7 +5144,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
         <v>58</v>
       </c>
@@ -5155,27 +5152,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
@@ -5183,7 +5180,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
@@ -5191,7 +5188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>73</v>
       </c>
@@ -5199,7 +5196,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
@@ -5207,7 +5204,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>75</v>
       </c>
@@ -5215,7 +5212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C37" s="2" t="s">
         <v>58</v>
       </c>
@@ -5223,58 +5220,52 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
         <v>58</v>
       </c>
@@ -5292,23 +5283,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="2.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="82.42578125" collapsed="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="82.44140625" collapsed="1"/>
     <col min="4" max="4" width="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="82.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5703125" collapsed="1"/>
-    <col min="7" max="7" width="69.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="1025" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="82.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5546875" collapsed="1"/>
+    <col min="7" max="7" width="69.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="1025" width="9.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
@@ -5316,462 +5307,462 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E39" s="1" t="s">
+    <row r="43" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E66" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E67" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C69" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E69" s="1" t="s">
+    </row>
+    <row r="70" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C72" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="70" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E72" s="1" t="s">
+    </row>
+    <row r="73" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C75" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="73" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E75" s="1" t="s">
+    </row>
+    <row r="76" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="76" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="1" t="s">
+    <row r="79" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C81" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E81" s="1" t="s">
+    </row>
+    <row r="82" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C84" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C85" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -5789,17 +5780,17 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="82.42578125" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" collapsed="1"/>
-    <col min="5" max="5" width="66.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="82.44140625" collapsed="1"/>
+    <col min="4" max="4" width="9.5546875" collapsed="1"/>
+    <col min="5" max="5" width="66.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="9.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
@@ -5807,153 +5798,153 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
+    <row r="10" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
+    <row r="13" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="3" t="s">
+    <row r="16" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="3" t="s">
+    <row r="19" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="3" t="s">
+    <row r="22" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
+    <row r="25" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -5971,21 +5962,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" collapsed="1"/>
-    <col min="2" max="2" width="82.42578125" collapsed="1"/>
-    <col min="3" max="1025" width="9.5703125" collapsed="1"/>
+    <col min="1" max="1" width="9.5546875" collapsed="1"/>
+    <col min="2" max="2" width="82.44140625" collapsed="1"/>
+    <col min="3" max="1025" width="9.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -6002,40 +5993,40 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" collapsed="1"/>
-    <col min="2" max="2" width="82.42578125" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" collapsed="1"/>
-    <col min="4" max="4" width="82.42578125" collapsed="1"/>
-    <col min="5" max="1025" width="9.5703125" collapsed="1"/>
+    <col min="1" max="1" width="9.5546875" collapsed="1"/>
+    <col min="2" max="2" width="82.44140625" collapsed="1"/>
+    <col min="3" max="3" width="9.5546875" collapsed="1"/>
+    <col min="4" max="4" width="82.44140625" collapsed="1"/>
+    <col min="5" max="1025" width="9.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="5" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="3" t="s">
+    <row r="7" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -6052,197 +6043,197 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" collapsed="1"/>
-    <col min="2" max="2" width="72.85546875" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" collapsed="1"/>
-    <col min="4" max="4" width="72.85546875" collapsed="1"/>
-    <col min="5" max="1025" width="9.5703125" collapsed="1"/>
+    <col min="1" max="1" width="9.5546875" collapsed="1"/>
+    <col min="2" max="2" width="72.88671875" collapsed="1"/>
+    <col min="3" max="3" width="9.5546875" collapsed="1"/>
+    <col min="4" max="4" width="72.88671875" collapsed="1"/>
+    <col min="5" max="1025" width="9.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="1" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="1" t="s">
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -6262,21 +6253,21 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" collapsed="1"/>
-    <col min="3" max="3" width="38.85546875" collapsed="1"/>
-    <col min="4" max="1025" width="9.5703125" collapsed="1"/>
+    <col min="1" max="2" width="9.5546875" collapsed="1"/>
+    <col min="3" max="3" width="38.88671875" collapsed="1"/>
+    <col min="4" max="1025" width="9.5546875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\openl2\DEV\org.openl.rules\test\rules\helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\DEV\org.openl.rules\test\rules\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC107EDF-9498-4D1B-8463-EE7C014AF387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C277A0-DB59-49AC-95C3-53E25EA477C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="855" windowWidth="23430" windowHeight="12045" tabRatio="891" firstSheet="6" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="507">
   <si>
     <t>Tests to test rules helper methods for Mod methods</t>
   </si>
@@ -745,9 +745,6 @@
     <t>Method short[] testShortTypeAdd(short[] inArr, int pos, short el)</t>
   </si>
   <si>
-    <t>return add(inArr, pos, el);</t>
-  </si>
-  <si>
     <t>Method byte[] testByteTypeAdd(byte[] inArr, byte el)</t>
   </si>
   <si>
@@ -1526,6 +1523,45 @@
   </si>
   <si>
     <t>Method boolean testContainsDateTypeInDateRangeArr(DateRange[] searchIn, Date searchFor)</t>
+  </si>
+  <si>
+    <t>return addElement(inArr, pos, el);</t>
+  </si>
+  <si>
+    <t>return flatten(x1,x2,x3,x4);</t>
+  </si>
+  <si>
+    <t>Method Integer[] testFlatten1(Integer x1, Integer x2, Integer x3, Integer x4)</t>
+  </si>
+  <si>
+    <t>return flatten(x1);</t>
+  </si>
+  <si>
+    <t>Method Integer[] testFlatten2(Integer[] x1)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testFlatten3(Integer[] x1, Integer x2, Integer x3)</t>
+  </si>
+  <si>
+    <t>return flatten(x1, x2, x3);</t>
+  </si>
+  <si>
+    <t>Method Integer[] testFlatten4(Integer[] x1, Integer[] x2, Integer[] x3, Integer x4)</t>
+  </si>
+  <si>
+    <t>return flatten(x1, x2, x3, x4);</t>
+  </si>
+  <si>
+    <t>Method Integer[] testFlatten5(Integer[][] x1)</t>
+  </si>
+  <si>
+    <t>Method Object[] testFlatten6(String x1, Integer[] x2, Double x3)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testFlatten7(Integer x1, Integer[] x2, Integer x3, Integer x4)</t>
+  </si>
+  <si>
+    <t>Method Integer[] testFlatten8(Integer[] x1, Integer[] x2, Integer x3)</t>
   </si>
 </sst>
 </file>
@@ -2093,24 +2129,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" collapsed="1"/>
-    <col min="2" max="2" width="9.5546875" collapsed="1"/>
-    <col min="3" max="3" width="72.88671875" collapsed="1"/>
-    <col min="4" max="4" width="9.5546875" collapsed="1"/>
-    <col min="5" max="5" width="72.88671875" collapsed="1"/>
-    <col min="6" max="6" width="9.5546875" collapsed="1"/>
-    <col min="7" max="7" width="19.5546875" collapsed="1"/>
-    <col min="8" max="8" width="38.44140625" collapsed="1"/>
-    <col min="9" max="1025" width="9.5546875" collapsed="1"/>
+    <col min="1" max="1" width="10.42578125" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="72.85546875" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="72.85546875" collapsed="1"/>
+    <col min="6" max="6" width="9.5703125" collapsed="1"/>
+    <col min="7" max="7" width="19.5703125" collapsed="1"/>
+    <col min="8" max="8" width="38.42578125" collapsed="1"/>
+    <col min="9" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2154,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2126,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2134,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2142,7 +2178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2150,7 +2186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +2194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2166,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2174,7 +2210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2182,7 +2218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2190,7 +2226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2198,7 +2234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
@@ -2214,7 +2250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
@@ -2222,7 +2258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2230,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2238,7 +2274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -2246,62 +2282,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
@@ -2323,497 +2359,497 @@
       <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" collapsed="1"/>
-    <col min="2" max="2" width="82.44140625" collapsed="1"/>
-    <col min="3" max="1025" width="9.5546875" collapsed="1"/>
+    <col min="1" max="1" width="9.5703125" collapsed="1"/>
+    <col min="2" max="2" width="82.42578125" collapsed="1"/>
+    <col min="3" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" s="6" t="s">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" s="5" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="6" t="s">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -2830,21 +2866,21 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" collapsed="1"/>
-    <col min="2" max="2" width="49.33203125" collapsed="1"/>
-    <col min="3" max="1012" width="11.5546875" collapsed="1"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="49.28515625" collapsed="1"/>
+    <col min="3" max="1012" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2865,99 +2901,99 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" collapsed="1"/>
-    <col min="2" max="2" width="51.33203125" collapsed="1"/>
-    <col min="3" max="1025" width="11.5546875" collapsed="1"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="51.28515625" collapsed="1"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>202</v>
       </c>
@@ -2980,16 +3016,16 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" collapsed="1"/>
-    <col min="2" max="2" width="50.33203125" collapsed="1"/>
-    <col min="3" max="3" width="11.5546875" collapsed="1"/>
-    <col min="4" max="4" width="56.44140625" collapsed="1"/>
-    <col min="5" max="1025" width="11.5546875" collapsed="1"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="50.28515625" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="56.42578125" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>207</v>
       </c>
@@ -2997,7 +3033,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>209</v>
       </c>
@@ -3005,7 +3041,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>211</v>
       </c>
@@ -3013,7 +3049,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>209</v>
       </c>
@@ -3021,7 +3057,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>213</v>
       </c>
@@ -3029,7 +3065,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>209</v>
       </c>
@@ -3037,7 +3073,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>215</v>
       </c>
@@ -3045,7 +3081,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>209</v>
       </c>
@@ -3053,7 +3089,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>217</v>
       </c>
@@ -3061,7 +3097,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>209</v>
       </c>
@@ -3069,7 +3105,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>219</v>
       </c>
@@ -3077,7 +3113,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>209</v>
       </c>
@@ -3085,7 +3121,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>221</v>
       </c>
@@ -3093,7 +3129,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>209</v>
       </c>
@@ -3101,7 +3137,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>223</v>
       </c>
@@ -3109,7 +3145,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>209</v>
       </c>
@@ -3117,7 +3153,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>225</v>
       </c>
@@ -3125,7 +3161,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>209</v>
       </c>
@@ -3133,7 +3169,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>227</v>
       </c>
@@ -3141,7 +3177,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>209</v>
       </c>
@@ -3149,15 +3185,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>209</v>
       </c>
@@ -3165,15 +3201,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>209</v>
       </c>
@@ -3195,20 +3231,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A2:AMK60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" collapsed="1"/>
-    <col min="2" max="2" width="70.109375" collapsed="1"/>
-    <col min="3" max="3" width="11.5546875" collapsed="1"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
     <col min="4" max="4" width="68" collapsed="1"/>
-    <col min="5" max="1025" width="11.5546875" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>229</v>
       </c>
@@ -3216,7 +3252,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -3224,7 +3260,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>232</v>
       </c>
@@ -3232,55 +3268,55 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>231</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="6" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>231</v>
       </c>
@@ -3288,31 +3324,31 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>231</v>
       </c>
@@ -3320,31 +3356,31 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>231</v>
       </c>
@@ -3352,31 +3388,31 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>231</v>
       </c>
@@ -3384,31 +3420,31 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>231</v>
       </c>
@@ -3416,31 +3452,31 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>231</v>
       </c>
@@ -3448,77 +3484,77 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>234</v>
+        <v>494</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="6" t="s">
-        <v>450</v>
-      </c>
       <c r="D54" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D59" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D60" s="6" t="s">
-        <v>234</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3534,151 +3570,151 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" collapsed="1"/>
-    <col min="2" max="2" width="56.44140625" collapsed="1"/>
-    <col min="3" max="3" width="11.5546875" collapsed="1"/>
-    <col min="4" max="4" width="71.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="11.5546875" collapsed="1"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="56.42578125" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="71.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3699,285 +3735,285 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" collapsed="1"/>
-    <col min="2" max="2" width="53.44140625" collapsed="1"/>
-    <col min="3" max="3" width="11.5546875" collapsed="1"/>
-    <col min="4" max="4" width="75.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="11.5546875" collapsed="1"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="53.42578125" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="75.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17" s="5" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D20" s="5" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
+      <c r="D23" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
+      <c r="D26" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="6" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="6" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="5" t="s">
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="6" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="6" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3998,121 +4034,121 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" collapsed="1"/>
-    <col min="2" max="2" width="62.33203125" collapsed="1"/>
-    <col min="3" max="1025" width="11.5546875" collapsed="1"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="62.28515625" collapsed="1"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4133,111 +4169,111 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" collapsed="1"/>
-    <col min="2" max="2" width="78.88671875" collapsed="1"/>
-    <col min="3" max="1025" width="11.5546875" collapsed="1"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
+    <col min="2" max="2" width="78.85546875" collapsed="1"/>
+    <col min="3" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4258,237 +4294,237 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" collapsed="1"/>
+    <col min="1" max="1" width="11.5703125" collapsed="1"/>
     <col min="2" max="2" width="50" collapsed="1"/>
-    <col min="3" max="3" width="11.5546875" collapsed="1"/>
-    <col min="4" max="4" width="65.44140625" collapsed="1"/>
-    <col min="5" max="1025" width="11.5546875" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" collapsed="1"/>
+    <col min="4" max="4" width="65.42578125" collapsed="1"/>
+    <col min="5" max="1025" width="11.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D17" s="5" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D20" s="5" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
+      <c r="D23" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
+      <c r="D26" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D26" s="5" t="s">
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
+      <c r="D29" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D29" s="5" t="s">
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
+      <c r="D32" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D32" s="5" t="s">
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="s">
+      <c r="D35" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D35" s="5" t="s">
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
+      <c r="D38" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D38" s="5" t="s">
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="6" t="s">
+      <c r="D41" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4509,17 +4545,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" collapsed="1"/>
-    <col min="2" max="2" width="9.5546875" collapsed="1"/>
-    <col min="3" max="3" width="72.88671875" collapsed="1"/>
-    <col min="4" max="4" width="9.5546875" collapsed="1"/>
-    <col min="5" max="5" width="72.88671875" collapsed="1"/>
-    <col min="6" max="1025" width="9.5546875" collapsed="1"/>
+    <col min="1" max="1" width="10.42578125" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="72.85546875" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="72.85546875" collapsed="1"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
@@ -4527,7 +4563,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4535,7 +4571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -4543,7 +4579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4551,7 +4587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
@@ -4559,7 +4595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
@@ -4567,7 +4603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
@@ -4575,7 +4611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
@@ -4583,7 +4619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
@@ -4591,7 +4627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
@@ -4599,7 +4635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
@@ -4607,7 +4643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
@@ -4615,7 +4651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
@@ -4623,7 +4659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>39</v>
       </c>
@@ -4631,7 +4667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
@@ -4639,7 +4675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
@@ -4647,7 +4683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -4655,7 +4691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
@@ -4663,7 +4699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
@@ -4671,7 +4707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
@@ -4679,7 +4715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
@@ -4687,7 +4723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
@@ -4695,7 +4731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
@@ -4703,7 +4739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>49</v>
       </c>
@@ -4711,7 +4747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>30</v>
       </c>
@@ -4719,42 +4755,42 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
         <v>30</v>
       </c>
@@ -4770,25 +4806,105 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -4804,80 +4920,80 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="53.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="53.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4893,138 +5009,138 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="4" max="4" width="67.88671875" customWidth="1"/>
+    <col min="4" max="4" width="67.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5034,21 +5150,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E46" sqref="E45:E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" collapsed="1"/>
-    <col min="2" max="2" width="9.5546875" collapsed="1"/>
-    <col min="3" max="3" width="72.88671875" collapsed="1"/>
-    <col min="4" max="4" width="9.5546875" collapsed="1"/>
-    <col min="5" max="5" width="72.88671875" collapsed="1"/>
-    <col min="6" max="1025" width="9.5546875" collapsed="1"/>
+    <col min="1" max="1" width="10.42578125" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="72.85546875" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="72.85546875" collapsed="1"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
@@ -5056,7 +5172,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
@@ -5064,7 +5180,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
@@ -5072,7 +5188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>59</v>
       </c>
@@ -5080,7 +5196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
@@ -5088,7 +5204,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
@@ -5096,7 +5212,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
@@ -5104,7 +5220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>63</v>
       </c>
@@ -5112,7 +5228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
@@ -5120,7 +5236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
@@ -5128,7 +5244,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>58</v>
       </c>
@@ -5136,7 +5252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
@@ -5144,7 +5260,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>58</v>
       </c>
@@ -5152,27 +5268,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
@@ -5180,7 +5296,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
@@ -5188,7 +5304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>73</v>
       </c>
@@ -5196,7 +5312,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
@@ -5204,7 +5320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>75</v>
       </c>
@@ -5212,7 +5328,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>58</v>
       </c>
@@ -5220,52 +5336,52 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
         <v>58</v>
       </c>
@@ -5287,19 +5403,19 @@
       <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="2.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="82.44140625" collapsed="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="82.42578125" collapsed="1"/>
     <col min="4" max="4" width="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="82.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5546875" collapsed="1"/>
-    <col min="7" max="7" width="69.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="1025" width="9.5546875" collapsed="1"/>
+    <col min="5" max="5" width="82.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5703125" collapsed="1"/>
+    <col min="7" max="7" width="69.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
@@ -5307,7 +5423,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>82</v>
       </c>
@@ -5315,7 +5431,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
@@ -5323,15 +5439,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>84</v>
       </c>
@@ -5339,15 +5455,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>84</v>
       </c>
@@ -5355,15 +5471,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>84</v>
       </c>
@@ -5371,15 +5487,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>84</v>
       </c>
@@ -5387,15 +5503,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>84</v>
       </c>
@@ -5403,15 +5519,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>84</v>
       </c>
@@ -5419,15 +5535,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>84</v>
       </c>
@@ -5435,15 +5551,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>84</v>
       </c>
@@ -5451,16 +5567,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>84</v>
       </c>
@@ -5468,16 +5584,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
         <v>84</v>
       </c>
@@ -5485,16 +5601,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="2" t="s">
         <v>84</v>
       </c>
@@ -5502,16 +5618,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
         <v>84</v>
       </c>
@@ -5519,16 +5635,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>84</v>
       </c>
@@ -5536,16 +5652,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
         <v>84</v>
       </c>
@@ -5553,16 +5669,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="2" t="s">
         <v>84</v>
       </c>
@@ -5570,16 +5686,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
         <v>84</v>
       </c>
@@ -5587,16 +5703,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C55" s="2" t="s">
         <v>84</v>
       </c>
@@ -5604,16 +5720,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="2" t="s">
         <v>84</v>
       </c>
@@ -5621,16 +5737,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="2" t="s">
         <v>84</v>
       </c>
@@ -5638,16 +5754,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="2" t="s">
         <v>84</v>
       </c>
@@ -5655,27 +5771,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E67" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C70" s="2" t="s">
         <v>84</v>
       </c>
@@ -5683,16 +5799,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="2" t="s">
         <v>84</v>
       </c>
@@ -5700,16 +5816,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C76" s="2" t="s">
         <v>84</v>
       </c>
@@ -5717,16 +5833,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C78" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="2" t="s">
         <v>84</v>
       </c>
@@ -5734,16 +5850,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="81" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C82" s="2" t="s">
         <v>84</v>
       </c>
@@ -5751,18 +5867,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="84" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C85" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -5780,17 +5896,17 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="82.44140625" collapsed="1"/>
-    <col min="4" max="4" width="9.5546875" collapsed="1"/>
-    <col min="5" max="5" width="66.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="9.5546875" collapsed="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="82.42578125" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" collapsed="1"/>
+    <col min="5" max="5" width="66.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
@@ -5798,26 +5914,26 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>86</v>
       </c>
@@ -5825,16 +5941,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>86</v>
       </c>
@@ -5842,16 +5958,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>86</v>
       </c>
@@ -5859,16 +5975,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>86</v>
       </c>
@@ -5876,16 +5992,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
         <v>86</v>
       </c>
@@ -5893,16 +6009,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
         <v>86</v>
       </c>
@@ -5910,16 +6026,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
         <v>86</v>
       </c>
@@ -5927,16 +6043,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
         <v>86</v>
       </c>
@@ -5944,7 +6060,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -5962,19 +6078,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" collapsed="1"/>
-    <col min="2" max="2" width="82.44140625" collapsed="1"/>
-    <col min="3" max="1025" width="9.5546875" collapsed="1"/>
+    <col min="1" max="1" width="9.5703125" collapsed="1"/>
+    <col min="2" max="2" width="82.42578125" collapsed="1"/>
+    <col min="3" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>88</v>
       </c>
@@ -5993,16 +6109,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" collapsed="1"/>
-    <col min="2" max="2" width="82.44140625" collapsed="1"/>
-    <col min="3" max="3" width="9.5546875" collapsed="1"/>
-    <col min="4" max="4" width="82.44140625" collapsed="1"/>
-    <col min="5" max="1025" width="9.5546875" collapsed="1"/>
+    <col min="1" max="1" width="9.5703125" collapsed="1"/>
+    <col min="2" max="2" width="82.42578125" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" collapsed="1"/>
+    <col min="4" max="4" width="82.42578125" collapsed="1"/>
+    <col min="5" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>89</v>
       </c>
@@ -6010,7 +6126,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>91</v>
       </c>
@@ -6018,13 +6134,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="4" t="s">
         <v>94</v>
       </c>
@@ -6043,16 +6159,16 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" collapsed="1"/>
-    <col min="2" max="2" width="72.88671875" collapsed="1"/>
-    <col min="3" max="3" width="9.5546875" collapsed="1"/>
-    <col min="4" max="4" width="72.88671875" collapsed="1"/>
-    <col min="5" max="1025" width="9.5546875" collapsed="1"/>
+    <col min="1" max="1" width="9.5703125" collapsed="1"/>
+    <col min="2" max="2" width="72.85546875" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" collapsed="1"/>
+    <col min="4" max="4" width="72.85546875" collapsed="1"/>
+    <col min="5" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>95</v>
       </c>
@@ -6060,7 +6176,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>96</v>
       </c>
@@ -6068,7 +6184,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>98</v>
       </c>
@@ -6076,7 +6192,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>99</v>
       </c>
@@ -6084,7 +6200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>98</v>
       </c>
@@ -6092,7 +6208,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>101</v>
       </c>
@@ -6100,7 +6216,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>98</v>
       </c>
@@ -6108,7 +6224,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>103</v>
       </c>
@@ -6116,7 +6232,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>98</v>
       </c>
@@ -6124,7 +6240,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>105</v>
       </c>
@@ -6132,7 +6248,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>98</v>
       </c>
@@ -6140,7 +6256,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>107</v>
       </c>
@@ -6148,7 +6264,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>98</v>
       </c>
@@ -6156,7 +6272,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>109</v>
       </c>
@@ -6164,7 +6280,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>98</v>
       </c>
@@ -6172,7 +6288,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>111</v>
       </c>
@@ -6180,7 +6296,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>98</v>
       </c>
@@ -6188,7 +6304,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>113</v>
       </c>
@@ -6196,7 +6312,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>98</v>
       </c>
@@ -6204,7 +6320,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>115</v>
       </c>
@@ -6212,7 +6328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>98</v>
       </c>
@@ -6220,7 +6336,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>117</v>
       </c>
@@ -6228,7 +6344,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>98</v>
       </c>
@@ -6253,19 +6369,19 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5546875" collapsed="1"/>
-    <col min="3" max="3" width="38.88671875" collapsed="1"/>
-    <col min="4" max="1025" width="9.5546875" collapsed="1"/>
+    <col min="1" max="2" width="9.5703125" collapsed="1"/>
+    <col min="3" max="3" width="38.85546875" collapsed="1"/>
+    <col min="4" max="1025" width="9.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>120</v>
       </c>

--- a/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/RulesUtilsTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\DEV\org.openl.rules\test\rules\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C277A0-DB59-49AC-95C3-53E25EA477C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270B736A-D5C6-4954-8F26-E9081C3B4870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="855" windowWidth="23430" windowHeight="12045" tabRatio="891" firstSheet="6" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="1245" windowWidth="25695" windowHeight="15825" tabRatio="891" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod" sheetId="2" r:id="rId1"/>
@@ -33,15 +33,16 @@
     <sheet name="Sheet22" sheetId="22" r:id="rId18"/>
     <sheet name="small and big" sheetId="23" r:id="rId19"/>
     <sheet name="arrays" sheetId="24" r:id="rId20"/>
-    <sheet name="alliases" sheetId="25" r:id="rId21"/>
-    <sheet name="median" sheetId="26" r:id="rId22"/>
+    <sheet name="copy" sheetId="27" r:id="rId21"/>
+    <sheet name="alliases" sheetId="25" r:id="rId22"/>
+    <sheet name="median" sheetId="26" r:id="rId23"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="509">
   <si>
     <t>Tests to test rules helper methods for Mod methods</t>
   </si>
@@ -1562,6 +1563,12 @@
   </si>
   <si>
     <t>Method Integer[] testFlatten8(Integer[] x1, Integer[] x2, Integer x3)</t>
+  </si>
+  <si>
+    <t>return copy(o);</t>
+  </si>
+  <si>
+    <t>Method Object copyObject(Object o)</t>
   </si>
 </sst>
 </file>
@@ -4808,7 +4815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B2:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -4913,6 +4920,31 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE1D8C4-FDC0-420B-B3B0-C52DFA404187}">
+  <dimension ref="C4:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B2:D20"/>
   <sheetViews>
@@ -5001,7 +5033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B1:D25"/>
   <sheetViews>
